--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -464,6 +464,13 @@
   </si>
   <si>
     <t>促销折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品月份</t>
+  </si>
+  <si>
+    <t>广告占销售额比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,45 +781,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -833,42 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DC6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1186,25 +1193,25 @@
     <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1215,281 +1222,285 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:107" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="24" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="37" t="s">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="38" t="s">
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="25" t="s">
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="25" t="s">
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="25" t="s">
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="25" t="s">
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="42" t="s">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="42" t="s">
+      <c r="BN2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="26"/>
-      <c r="BQ2" s="25" t="s">
+      <c r="BP2" s="46"/>
+      <c r="BQ2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="53" t="s">
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="34"/>
-      <c r="BU2" s="25" t="s">
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="33"/>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="34"/>
-      <c r="BZ2" s="54" t="s">
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="33" t="s">
+      <c r="CA2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33"/>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
-      <c r="CL2" s="34"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="26"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="48"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="34"/>
-      <c r="CU2" s="25" t="s">
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="34"/>
+      <c r="CV2" s="27"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="24" t="s">
+      <c r="CX2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="24"/>
-      <c r="CZ2" s="24"/>
-      <c r="DA2" s="24"/>
-      <c r="DB2" s="24" t="s">
+      <c r="CY2" s="45"/>
+      <c r="CZ2" s="45"/>
+      <c r="DA2" s="45"/>
+      <c r="DB2" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="24"/>
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
     </row>
-    <row r="3" spans="1:107" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="36">
         <v>6.5</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="28"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="27"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="27"/>
-      <c r="BV3" s="35"/>
-      <c r="BW3" s="35"/>
-      <c r="BX3" s="35"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="35"/>
-      <c r="CD3" s="35"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="35"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="35"/>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="35"/>
-      <c r="CL3" s="36"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="36"/>
-      <c r="CU3" s="27"/>
-      <c r="CV3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="31"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="30"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="37"/>
+      <c r="CV3" s="31"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="24"/>
-      <c r="CY3" s="24"/>
-      <c r="CZ3" s="24"/>
-      <c r="DA3" s="24"/>
-      <c r="DB3" s="24"/>
-      <c r="DC3" s="24"/>
+      <c r="CX3" s="45"/>
+      <c r="CY3" s="45"/>
+      <c r="CZ3" s="45"/>
+      <c r="DA3" s="45"/>
+      <c r="DB3" s="41"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
     </row>
-    <row r="4" spans="1:107" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
+    <row r="4" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1739,19 +1750,21 @@
       </c>
       <c r="DB4" s="4"/>
       <c r="DC4" s="4"/>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="4"/>
     </row>
-    <row r="5" spans="1:107" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1827,22 +1840,22 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="30" t="s">
+      <c r="BC5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="32"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="30" t="s">
+      <c r="BH5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="30" t="s">
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="32"/>
+      <c r="BL5" s="33"/>
       <c r="BM5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1861,14 +1874,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="51" t="s">
+      <c r="CA5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="52" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="52"/>
+      <c r="CD5" s="35"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -1894,8 +1907,10 @@
       <c r="DA5" s="4"/>
       <c r="DB5" s="4"/>
       <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
     </row>
-    <row r="6" spans="1:107" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:109" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2215,24 +2230,16 @@
       <c r="DC6" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="DD6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="DE6" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="DB2:DC3"/>
+    <mergeCell ref="DB2:DE3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="B2:H2"/>
@@ -2248,6 +2255,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2272,20 +2293,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2300,270 +2321,270 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="24" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="37" t="s">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="38" t="s">
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="25" t="s">
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="25" t="s">
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="25" t="s">
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="25" t="s">
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="34"/>
-      <c r="BL2" s="42" t="s">
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="42" t="s">
+      <c r="BM2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="26"/>
-      <c r="BP2" s="25" t="s">
+      <c r="BO2" s="46"/>
+      <c r="BP2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="34"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="34"/>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="33"/>
-      <c r="BV2" s="33"/>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="54" t="s">
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="33" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="33"/>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33"/>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="47" t="s">
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="48"/>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="34"/>
-      <c r="CT2" s="25" t="s">
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="34"/>
+      <c r="CU2" s="27"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="24" t="s">
+      <c r="CW2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="24"/>
-      <c r="CY2" s="24"/>
-      <c r="CZ2" s="24"/>
-      <c r="DA2" s="24" t="s">
+      <c r="CX2" s="45"/>
+      <c r="CY2" s="45"/>
+      <c r="CZ2" s="45"/>
+      <c r="DA2" s="45" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="27"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="35"/>
-      <c r="BW3" s="35"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="35"/>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="35"/>
-      <c r="CD3" s="35"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="35"/>
-      <c r="CI3" s="35"/>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="35"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="27"/>
-      <c r="CU3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="31"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="24"/>
-      <c r="CX3" s="24"/>
-      <c r="CY3" s="24"/>
-      <c r="CZ3" s="24"/>
-      <c r="DA3" s="24"/>
+      <c r="CW3" s="45"/>
+      <c r="CX3" s="45"/>
+      <c r="CY3" s="45"/>
+      <c r="CZ3" s="45"/>
+      <c r="DA3" s="45"/>
     </row>
     <row r="4" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2814,16 +2835,16 @@
       <c r="DA4" s="4"/>
     </row>
     <row r="5" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2899,22 +2920,22 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="30" t="s">
+      <c r="BB5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="32"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="30" t="s">
+      <c r="BG5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="30" t="s">
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BK5" s="32"/>
+      <c r="BK5" s="33"/>
       <c r="BL5" s="4" t="s">
         <v>38</v>
       </c>
@@ -2933,14 +2954,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="52" t="s">
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="52"/>
+      <c r="CC5" s="35"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3283,6 +3304,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BP2:BQ3"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:W3"/>
+    <mergeCell ref="X2:AL3"/>
+    <mergeCell ref="AM2:AN3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="BE2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="DA2:DA3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="BB5:BD5"/>
@@ -3299,20 +3334,6 @@
     <mergeCell ref="BZ2:CK3"/>
     <mergeCell ref="AS2:BA3"/>
     <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="BE2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="BN2:BO3"/>
-    <mergeCell ref="BP2:BQ3"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:W3"/>
-    <mergeCell ref="X2:AL3"/>
-    <mergeCell ref="AM2:AN3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="店铺sku" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -781,36 +781,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,12 +869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,51 +876,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+    <sheetView topLeftCell="CO1" workbookViewId="0">
       <selection activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
@@ -1197,21 +1197,21 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1226,281 +1226,281 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="45" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="49" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="50" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="36" t="s">
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="36" t="s">
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="36" t="s">
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="54" t="s">
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="54" t="s">
+      <c r="BN2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BO2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="46"/>
-      <c r="BQ2" s="36" t="s">
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="38" t="s">
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="36" t="s">
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="39" t="s">
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CA2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="26"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="24" t="s">
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="48"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="35"/>
+      <c r="CM2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="27"/>
-      <c r="CU2" s="36" t="s">
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="48"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="35"/>
+      <c r="CU2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="27"/>
+      <c r="CV2" s="35"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="45" t="s">
+      <c r="CX2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="45"/>
-      <c r="CZ2" s="45"/>
-      <c r="DA2" s="45"/>
-      <c r="DB2" s="41" t="s">
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
+      <c r="DC2" s="25"/>
+      <c r="DD2" s="25"/>
+      <c r="DE2" s="25"/>
     </row>
     <row r="3" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="36">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="26">
         <v>6.5</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="29"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="28"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="29"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="30"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="31"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="37"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="37"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="45"/>
-      <c r="CY3" s="45"/>
-      <c r="CZ3" s="45"/>
-      <c r="DA3" s="45"/>
-      <c r="DB3" s="41"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="24"/>
+      <c r="DC3" s="25"/>
+      <c r="DD3" s="25"/>
+      <c r="DE3" s="25"/>
     </row>
     <row r="4" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1754,17 +1754,17 @@
       <c r="DE4" s="4"/>
     </row>
     <row r="5" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1840,19 +1840,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="32" t="s">
+      <c r="BC5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="44"/>
+      <c r="BD5" s="32"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="32" t="s">
+      <c r="BH5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="44"/>
+      <c r="BI5" s="32"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="32" t="s">
+      <c r="BK5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1874,14 +1874,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="34" t="s">
+      <c r="CA5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="35" t="s">
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="35"/>
+      <c r="CD5" s="52"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2239,6 +2239,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="DB2:DE3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
@@ -2255,20 +2269,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA6"/>
+  <dimension ref="A1:DB6"/>
   <sheetViews>
-    <sheetView topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="DB1" sqref="DB1:DB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="DB6" sqref="DB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2289,24 +2289,24 @@
     <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2317,274 +2317,276 @@
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
     </row>
-    <row r="2" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="45" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="49" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="50" t="s">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="36" t="s">
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="36" t="s">
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="36" t="s">
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="36" t="s">
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="54" t="s">
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="54" t="s">
+      <c r="BM2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BN2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="46"/>
-      <c r="BP2" s="36" t="s">
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="38" t="s">
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="36" t="s">
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="39" t="s">
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="24" t="s">
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="26"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="36" t="s">
+      <c r="CM2" s="48"/>
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="35"/>
+      <c r="CT2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="27"/>
+      <c r="CU2" s="35"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="45" t="s">
+      <c r="CW2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="45"/>
-      <c r="CY2" s="45"/>
-      <c r="CZ2" s="45"/>
-      <c r="DA2" s="45" t="s">
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="24" t="s">
         <v>130</v>
       </c>
+      <c r="DB2" s="25"/>
     </row>
-    <row r="3" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="31"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="28"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="37"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="45"/>
-      <c r="CX3" s="45"/>
-      <c r="CY3" s="45"/>
-      <c r="CZ3" s="45"/>
-      <c r="DA3" s="45"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="24"/>
+      <c r="DB3" s="25"/>
     </row>
-    <row r="4" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+    <row r="4" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2833,18 +2835,19 @@
         <v>23</v>
       </c>
       <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
     </row>
-    <row r="5" spans="1:105" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2920,19 +2923,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="32" t="s">
+      <c r="BB5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="44"/>
+      <c r="BC5" s="32"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="32" t="s">
+      <c r="BG5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="44"/>
+      <c r="BH5" s="32"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="32" t="s">
+      <c r="BJ5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -2954,14 +2957,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="34" t="s">
+      <c r="BZ5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="35" t="s">
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="35"/>
+      <c r="CC5" s="52"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -2986,8 +2989,9 @@
       <c r="CY5" s="4"/>
       <c r="CZ5" s="4"/>
       <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
     </row>
-    <row r="6" spans="1:105" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3301,24 +3305,13 @@
       <c r="DA6" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="DB6" s="11" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BP2:BQ3"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:W3"/>
-    <mergeCell ref="X2:AL3"/>
-    <mergeCell ref="AM2:AN3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="BE2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="BN2:BO3"/>
-    <mergeCell ref="DA2:DA3"/>
+    <mergeCell ref="DA2:DB3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BG5:BI5"/>
@@ -3334,6 +3327,20 @@
     <mergeCell ref="BZ2:CK3"/>
     <mergeCell ref="AS2:BA3"/>
     <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="BP2:BQ3"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:W3"/>
+    <mergeCell ref="X2:AL3"/>
+    <mergeCell ref="AM2:AN3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="BE2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BO3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="141">
   <si>
     <r>
       <rPr>
@@ -471,6 +471,14 @@
   </si>
   <si>
     <t>广告占销售额比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品成本/pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头程成本/pc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,48 +789,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,36 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,21 +1205,21 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1226,281 +1234,281 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="38" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39" t="s">
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="40" t="s">
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="26" t="s">
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="26" t="s">
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="26" t="s">
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="44" t="s">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="44" t="s">
+      <c r="BN2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BO2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="26" t="s">
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="53" t="s">
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="26" t="s">
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="54" t="s">
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CA2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="34"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="26"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="48"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="34"/>
-      <c r="CT2" s="35"/>
-      <c r="CU2" s="26" t="s">
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="35"/>
+      <c r="CV2" s="27"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="38" t="s">
+      <c r="CX2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="38"/>
-      <c r="DB2" s="24" t="s">
+      <c r="CY2" s="48"/>
+      <c r="CZ2" s="48"/>
+      <c r="DA2" s="48"/>
+      <c r="DB2" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="25"/>
-      <c r="DD2" s="25"/>
-      <c r="DE2" s="25"/>
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
     </row>
     <row r="3" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="36">
         <v>6.5</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="28"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="28"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="28"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="36"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="28"/>
-      <c r="CV3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="31"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="30"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="37"/>
+      <c r="CV3" s="31"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="24"/>
-      <c r="DC3" s="25"/>
-      <c r="DD3" s="25"/>
-      <c r="DE3" s="25"/>
+      <c r="CX3" s="48"/>
+      <c r="CY3" s="48"/>
+      <c r="CZ3" s="48"/>
+      <c r="DA3" s="48"/>
+      <c r="DB3" s="41"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
     </row>
     <row r="4" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1754,17 +1762,17 @@
       <c r="DE4" s="4"/>
     </row>
     <row r="5" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1840,19 +1848,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="31" t="s">
+      <c r="BC5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="32"/>
+      <c r="BD5" s="44"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="31" t="s">
+      <c r="BH5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="32"/>
+      <c r="BI5" s="44"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="31" t="s">
+      <c r="BK5" s="32" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1874,14 +1882,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="51" t="s">
+      <c r="CA5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="52" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="52"/>
+      <c r="CD5" s="35"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2239,20 +2247,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="DB2:DE3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
@@ -2269,6 +2263,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB6"/>
+  <dimension ref="A1:DD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="DB6" sqref="DB6"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="DA2" sqref="DA2:DD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2289,24 +2297,24 @@
     <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2317,276 +2325,280 @@
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
     </row>
-    <row r="2" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="38" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="40" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="26" t="s">
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="26" t="s">
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="26" t="s">
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="26" t="s">
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="44" t="s">
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="44" t="s">
+      <c r="BM2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="26" t="s">
+      <c r="BN2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="26" t="s">
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="26" t="s">
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="54" t="s">
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="34" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="47" t="s">
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="48"/>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="34"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="35"/>
-      <c r="CT2" s="26" t="s">
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="35"/>
+      <c r="CU2" s="27"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="38" t="s">
+      <c r="CW2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="38"/>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="24" t="s">
+      <c r="CX2" s="48"/>
+      <c r="CY2" s="48"/>
+      <c r="CZ2" s="48"/>
+      <c r="DA2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="25"/>
+      <c r="DB2" s="26"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="27"/>
     </row>
-    <row r="3" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="28"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="28"/>
-      <c r="BO3" s="29"/>
-      <c r="BP3" s="28"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="28"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="28"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="28"/>
-      <c r="CU3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="31"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="24"/>
-      <c r="DB3" s="25"/>
+      <c r="CW3" s="48"/>
+      <c r="CX3" s="48"/>
+      <c r="CY3" s="48"/>
+      <c r="CZ3" s="48"/>
+      <c r="DA3" s="37"/>
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="30"/>
+      <c r="DD3" s="31"/>
     </row>
-    <row r="4" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="46"/>
+    <row r="4" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2836,18 +2848,20 @@
       </c>
       <c r="DA4" s="4"/>
       <c r="DB4" s="4"/>
+      <c r="DC4" s="4"/>
+      <c r="DD4" s="4"/>
     </row>
-    <row r="5" spans="1:106" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2923,19 +2937,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="31" t="s">
+      <c r="BB5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="32"/>
+      <c r="BC5" s="44"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="32"/>
+      <c r="BH5" s="44"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="31" t="s">
+      <c r="BJ5" s="32" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -2957,14 +2971,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="52" t="s">
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="52"/>
+      <c r="CC5" s="35"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -2990,8 +3004,10 @@
       <c r="CZ5" s="4"/>
       <c r="DA5" s="4"/>
       <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
     </row>
-    <row r="6" spans="1:106" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3308,10 +3324,30 @@
       <c r="DB6" s="11" t="s">
         <v>138</v>
       </c>
+      <c r="DC6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD6" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="DA2:DB3"/>
+    <mergeCell ref="DA2:DD3"/>
+    <mergeCell ref="BP2:BQ3"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:W3"/>
+    <mergeCell ref="X2:AL3"/>
+    <mergeCell ref="AM2:AN3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="BE2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="BB5:BD5"/>
     <mergeCell ref="BG5:BI5"/>
@@ -3327,20 +3363,6 @@
     <mergeCell ref="BZ2:CK3"/>
     <mergeCell ref="AS2:BA3"/>
     <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="BP2:BQ3"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:W3"/>
-    <mergeCell ref="X2:AL3"/>
-    <mergeCell ref="AM2:AN3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="BE2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="BN2:BO3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="店铺sku" sheetId="1" r:id="rId1"/>
     <sheet name="店铺父sku" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="142">
   <si>
     <r>
       <rPr>
@@ -479,6 +479,10 @@
   </si>
   <si>
     <t>头程成本/pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,36 +793,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,12 +881,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,51 +888,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DE6"/>
+  <dimension ref="A1:DF6"/>
   <sheetViews>
-    <sheetView topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="DD6" sqref="DD6"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="DF6" sqref="DF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1201,25 +1205,25 @@
     <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1230,285 +1234,287 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="48" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="50" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="36" t="s">
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="36" t="s">
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="36" t="s">
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="54" t="s">
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="54" t="s">
+      <c r="BN2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BO2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="36" t="s">
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="38" t="s">
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="36" t="s">
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="39" t="s">
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CA2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="26"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="24" t="s">
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="48"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="35"/>
+      <c r="CM2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="27"/>
-      <c r="CU2" s="36" t="s">
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="48"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="35"/>
+      <c r="CU2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="27"/>
+      <c r="CV2" s="35"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="48" t="s">
+      <c r="CX2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="48"/>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="48"/>
-      <c r="DB2" s="41" t="s">
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
+      <c r="DC2" s="25"/>
+      <c r="DD2" s="25"/>
+      <c r="DE2" s="25"/>
+      <c r="DF2" s="25"/>
     </row>
-    <row r="3" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="36">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="26">
         <v>6.5</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="29"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="28"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="29"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="30"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="31"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="37"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="37"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="48"/>
-      <c r="DB3" s="41"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="24"/>
+      <c r="DC3" s="25"/>
+      <c r="DD3" s="25"/>
+      <c r="DE3" s="25"/>
+      <c r="DF3" s="25"/>
     </row>
-    <row r="4" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+    <row r="4" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1760,19 +1766,20 @@
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
       <c r="DE4" s="4"/>
+      <c r="DF4" s="4"/>
     </row>
-    <row r="5" spans="1:109" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1848,19 +1855,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="32" t="s">
+      <c r="BC5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="44"/>
+      <c r="BD5" s="32"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="32" t="s">
+      <c r="BH5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="44"/>
+      <c r="BI5" s="32"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="32" t="s">
+      <c r="BK5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1882,14 +1889,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="34" t="s">
+      <c r="CA5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="35" t="s">
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="35"/>
+      <c r="CD5" s="52"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -1917,8 +1924,9 @@
       <c r="DC5" s="4"/>
       <c r="DD5" s="4"/>
       <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
     </row>
-    <row r="6" spans="1:109" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:110" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2244,10 +2252,27 @@
       <c r="DE6" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="DF6" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="DB2:DE3"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="DB2:DF3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="B2:H2"/>
@@ -2263,20 +2288,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2287,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+    <sheetView topLeftCell="BZ1" workbookViewId="0">
       <selection activeCell="DA2" sqref="DA2:DD3"/>
     </sheetView>
   </sheetViews>
@@ -2301,20 +2312,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2329,276 +2340,276 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="48" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="50" t="s">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="36" t="s">
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="36" t="s">
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="36" t="s">
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="36" t="s">
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="54" t="s">
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="54" t="s">
+      <c r="BM2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BN2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="36" t="s">
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="38" t="s">
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="36" t="s">
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="39" t="s">
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="24" t="s">
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="26"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="36" t="s">
+      <c r="CM2" s="48"/>
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="35"/>
+      <c r="CT2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="27"/>
+      <c r="CU2" s="35"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="48" t="s">
+      <c r="CW2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="48"/>
-      <c r="CY2" s="48"/>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="36" t="s">
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="26"/>
-      <c r="DC2" s="26"/>
-      <c r="DD2" s="27"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="35"/>
     </row>
     <row r="3" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="31"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="28"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="37"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="48"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="37"/>
-      <c r="DB3" s="30"/>
-      <c r="DC3" s="30"/>
-      <c r="DD3" s="31"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="28"/>
+      <c r="DB3" s="36"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="37"/>
     </row>
     <row r="4" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2852,16 +2863,16 @@
       <c r="DD4" s="4"/>
     </row>
     <row r="5" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2937,19 +2948,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="32" t="s">
+      <c r="BB5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="44"/>
+      <c r="BC5" s="32"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="32" t="s">
+      <c r="BG5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="44"/>
+      <c r="BH5" s="32"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="32" t="s">
+      <c r="BJ5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -2971,14 +2982,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="34" t="s">
+      <c r="BZ5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="35" t="s">
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="35"/>
+      <c r="CC5" s="52"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3333,6 +3344,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
     <mergeCell ref="DA2:DD3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3348,21 +3373,7 @@
     <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -793,48 +793,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,36 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="DF6" sqref="DF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1209,21 +1209,21 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1238,283 +1238,281 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="38" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39" t="s">
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="40" t="s">
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="26" t="s">
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="26" t="s">
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="26" t="s">
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="44" t="s">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="44" t="s">
+      <c r="BN2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BO2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="26" t="s">
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="53" t="s">
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="26" t="s">
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="54" t="s">
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CA2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="34"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="26"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="48"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="34"/>
-      <c r="CT2" s="35"/>
-      <c r="CU2" s="26" t="s">
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="35"/>
+      <c r="CV2" s="27"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="38" t="s">
+      <c r="CX2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="38"/>
-      <c r="DB2" s="24" t="s">
+      <c r="CY2" s="48"/>
+      <c r="CZ2" s="48"/>
+      <c r="DA2" s="48"/>
+      <c r="DB2" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="25"/>
-      <c r="DD2" s="25"/>
-      <c r="DE2" s="25"/>
-      <c r="DF2" s="25"/>
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
+      <c r="DF2" s="42"/>
     </row>
     <row r="3" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26">
-        <v>6.5</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="28"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="28"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="28"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="36"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="28"/>
-      <c r="CV3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="31"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="30"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="37"/>
+      <c r="CV3" s="31"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="24"/>
-      <c r="DC3" s="25"/>
-      <c r="DD3" s="25"/>
-      <c r="DE3" s="25"/>
-      <c r="DF3" s="25"/>
+      <c r="CX3" s="48"/>
+      <c r="CY3" s="48"/>
+      <c r="CZ3" s="48"/>
+      <c r="DA3" s="48"/>
+      <c r="DB3" s="41"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="42"/>
     </row>
     <row r="4" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1769,17 +1767,17 @@
       <c r="DF4" s="4"/>
     </row>
     <row r="5" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1855,19 +1853,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="31" t="s">
+      <c r="BC5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="32"/>
+      <c r="BD5" s="44"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="31" t="s">
+      <c r="BH5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="32"/>
+      <c r="BI5" s="44"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="31" t="s">
+      <c r="BK5" s="32" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1889,14 +1887,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="51" t="s">
+      <c r="CA5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="52" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="52"/>
+      <c r="CD5" s="35"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2258,20 +2256,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="DB2:DF3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
@@ -2288,6 +2272,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD6"/>
   <sheetViews>
-    <sheetView topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="DA2" sqref="DA2:DD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2312,20 +2310,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2340,276 +2338,276 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="38" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="40" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="26" t="s">
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="26" t="s">
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="26" t="s">
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="26" t="s">
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="44" t="s">
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="44" t="s">
+      <c r="BM2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="26" t="s">
+      <c r="BN2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="26" t="s">
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="26" t="s">
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="54" t="s">
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="34" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="47" t="s">
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="48"/>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="34"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="35"/>
-      <c r="CT2" s="26" t="s">
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="35"/>
+      <c r="CU2" s="27"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="38" t="s">
+      <c r="CW2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="38"/>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="26" t="s">
+      <c r="CX2" s="48"/>
+      <c r="CY2" s="48"/>
+      <c r="CZ2" s="48"/>
+      <c r="DA2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="34"/>
-      <c r="DC2" s="34"/>
-      <c r="DD2" s="35"/>
+      <c r="DB2" s="26"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="27"/>
     </row>
     <row r="3" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="28"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="28"/>
-      <c r="BO3" s="29"/>
-      <c r="BP3" s="28"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="28"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="28"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="28"/>
-      <c r="CU3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="31"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="28"/>
-      <c r="DB3" s="36"/>
-      <c r="DC3" s="36"/>
-      <c r="DD3" s="37"/>
+      <c r="CW3" s="48"/>
+      <c r="CX3" s="48"/>
+      <c r="CY3" s="48"/>
+      <c r="CZ3" s="48"/>
+      <c r="DA3" s="37"/>
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="30"/>
+      <c r="DD3" s="31"/>
     </row>
     <row r="4" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="46"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2863,16 +2861,16 @@
       <c r="DD4" s="4"/>
     </row>
     <row r="5" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2948,19 +2946,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="31" t="s">
+      <c r="BB5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="32"/>
+      <c r="BC5" s="44"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="32"/>
+      <c r="BH5" s="44"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="31" t="s">
+      <c r="BJ5" s="32" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -2982,14 +2980,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="52" t="s">
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="52"/>
+      <c r="CC5" s="35"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3344,20 +3342,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
     <mergeCell ref="DA2:DD3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3374,6 +3358,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -483,6 +483,14 @@
   </si>
   <si>
     <t>开发等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,36 +801,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,12 +889,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,51 +896,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DF6"/>
+  <dimension ref="A1:DH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H4"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="DG6" sqref="DG6:DH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1205,25 +1213,25 @@
     <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1234,285 +1242,285 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="48" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="50" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="36" t="s">
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="36" t="s">
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="36" t="s">
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="54" t="s">
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="54" t="s">
+      <c r="BN2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BO2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="36" t="s">
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="38" t="s">
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="36" t="s">
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="39" t="s">
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CA2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="26"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="24" t="s">
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="48"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="35"/>
+      <c r="CM2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="27"/>
-      <c r="CU2" s="36" t="s">
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="48"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="35"/>
+      <c r="CU2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="27"/>
+      <c r="CV2" s="35"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="48" t="s">
+      <c r="CX2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="48"/>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="48"/>
-      <c r="DB2" s="41" t="s">
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
-      <c r="DF2" s="42"/>
+      <c r="DC2" s="25"/>
+      <c r="DD2" s="25"/>
+      <c r="DE2" s="25"/>
+      <c r="DF2" s="25"/>
     </row>
-    <row r="3" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="29"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="28"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="29"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="30"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="31"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="37"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="37"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="48"/>
-      <c r="DB3" s="41"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="42"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="24"/>
+      <c r="DC3" s="25"/>
+      <c r="DD3" s="25"/>
+      <c r="DE3" s="25"/>
+      <c r="DF3" s="25"/>
     </row>
-    <row r="4" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+    <row r="4" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1766,18 +1774,18 @@
       <c r="DE4" s="4"/>
       <c r="DF4" s="4"/>
     </row>
-    <row r="5" spans="1:110" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1853,19 +1861,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="32" t="s">
+      <c r="BC5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="44"/>
+      <c r="BD5" s="32"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="32" t="s">
+      <c r="BH5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="44"/>
+      <c r="BI5" s="32"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="32" t="s">
+      <c r="BK5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1887,14 +1895,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="34" t="s">
+      <c r="CA5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="35" t="s">
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="35"/>
+      <c r="CD5" s="52"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -1924,7 +1932,7 @@
       <c r="DE5" s="4"/>
       <c r="DF5" s="4"/>
     </row>
-    <row r="6" spans="1:110" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:112" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2253,9 +2261,29 @@
       <c r="DF6" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="DG6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DH6" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="DB2:DF3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
@@ -2272,20 +2300,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,20 +2324,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2338,276 +2352,276 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="48" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="50" t="s">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="36" t="s">
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="36" t="s">
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="36" t="s">
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="36" t="s">
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="54" t="s">
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="54" t="s">
+      <c r="BM2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BN2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="36" t="s">
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="38" t="s">
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="36" t="s">
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="39" t="s">
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="24" t="s">
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="26"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="36" t="s">
+      <c r="CM2" s="48"/>
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="35"/>
+      <c r="CT2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="27"/>
+      <c r="CU2" s="35"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="48" t="s">
+      <c r="CW2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="48"/>
-      <c r="CY2" s="48"/>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="36" t="s">
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="26"/>
-      <c r="DC2" s="26"/>
-      <c r="DD2" s="27"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="35"/>
     </row>
     <row r="3" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="31"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="28"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="37"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="48"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="37"/>
-      <c r="DB3" s="30"/>
-      <c r="DC3" s="30"/>
-      <c r="DD3" s="31"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="28"/>
+      <c r="DB3" s="36"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="37"/>
     </row>
     <row r="4" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2861,16 +2875,16 @@
       <c r="DD4" s="4"/>
     </row>
     <row r="5" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2946,19 +2960,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="32" t="s">
+      <c r="BB5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="44"/>
+      <c r="BC5" s="32"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="32" t="s">
+      <c r="BG5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="44"/>
+      <c r="BH5" s="32"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="32" t="s">
+      <c r="BJ5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -2980,14 +2994,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="34" t="s">
+      <c r="BZ5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="35" t="s">
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="35"/>
+      <c r="CC5" s="52"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3342,6 +3356,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DD3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3358,20 +3386,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="店铺sku" sheetId="1" r:id="rId1"/>
     <sheet name="店铺父sku" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="146">
   <si>
     <r>
       <rPr>
@@ -491,6 +491,14 @@
   </si>
   <si>
     <t>头程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌广告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,48 +809,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,36 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,37 +1209,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH6"/>
+  <dimension ref="A1:DJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="DG6" sqref="DG6:DH6"/>
+      <selection activeCell="DJ6" sqref="DJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1242,285 +1250,285 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="38" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39" t="s">
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="40" t="s">
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="26" t="s">
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="26" t="s">
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="26" t="s">
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="44" t="s">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="44" t="s">
+      <c r="BN2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BO2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="26" t="s">
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="53" t="s">
+      <c r="BR2" s="27"/>
+      <c r="BS2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="26" t="s">
+      <c r="BT2" s="27"/>
+      <c r="BU2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="54" t="s">
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="27"/>
+      <c r="BZ2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CA2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="34"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="26"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="27"/>
+      <c r="CM2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="48"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="34"/>
-      <c r="CT2" s="35"/>
-      <c r="CU2" s="26" t="s">
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="27"/>
+      <c r="CU2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="35"/>
+      <c r="CV2" s="27"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="38" t="s">
+      <c r="CX2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="38"/>
-      <c r="DB2" s="24" t="s">
+      <c r="CY2" s="48"/>
+      <c r="CZ2" s="48"/>
+      <c r="DA2" s="48"/>
+      <c r="DB2" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="25"/>
-      <c r="DD2" s="25"/>
-      <c r="DE2" s="25"/>
-      <c r="DF2" s="25"/>
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
+      <c r="DF2" s="42"/>
     </row>
-    <row r="3" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="28"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="28"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="28"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="36"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="28"/>
-      <c r="CV3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="37"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="37"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="37"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="31"/>
+      <c r="BZ3" s="40"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="31"/>
+      <c r="CM3" s="28"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="30"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="37"/>
+      <c r="CV3" s="31"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="24"/>
-      <c r="DC3" s="25"/>
-      <c r="DD3" s="25"/>
-      <c r="DE3" s="25"/>
-      <c r="DF3" s="25"/>
+      <c r="CX3" s="48"/>
+      <c r="CY3" s="48"/>
+      <c r="CZ3" s="48"/>
+      <c r="DA3" s="48"/>
+      <c r="DB3" s="41"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="42"/>
     </row>
-    <row r="4" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="46"/>
+    <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1774,18 +1782,18 @@
       <c r="DE4" s="4"/>
       <c r="DF4" s="4"/>
     </row>
-    <row r="5" spans="1:112" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1861,19 +1869,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="31" t="s">
+      <c r="BC5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="32"/>
+      <c r="BD5" s="44"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="31" t="s">
+      <c r="BH5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="32"/>
+      <c r="BI5" s="44"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="31" t="s">
+      <c r="BK5" s="32" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1895,14 +1903,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="51" t="s">
+      <c r="CA5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="52" t="s">
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="52"/>
+      <c r="CD5" s="35"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -1932,7 +1940,7 @@
       <c r="DE5" s="4"/>
       <c r="DF5" s="4"/>
     </row>
-    <row r="6" spans="1:112" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:114" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2267,23 +2275,15 @@
       <c r="DH6" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="DI6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ6" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="DB2:DF3"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
@@ -2300,6 +2300,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,30 +2328,30 @@
       <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2348,280 +2362,280 @@
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
     </row>
-    <row r="2" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="38" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="40" t="s">
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="26" t="s">
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="26" t="s">
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="26" t="s">
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="26" t="s">
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="44" t="s">
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="44" t="s">
+      <c r="BM2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="26" t="s">
+      <c r="BN2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="26" t="s">
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BQ2" s="27"/>
+      <c r="BR2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="26" t="s">
+      <c r="BS2" s="27"/>
+      <c r="BT2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="54" t="s">
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="27"/>
+      <c r="BY2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="34" t="s">
+      <c r="BZ2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="47" t="s">
+      <c r="CA2" s="26"/>
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="25"/>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26"/>
+      <c r="CK2" s="27"/>
+      <c r="CL2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="48"/>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="34"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="35"/>
-      <c r="CT2" s="26" t="s">
+      <c r="CM2" s="25"/>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="26"/>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="27"/>
+      <c r="CT2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="35"/>
+      <c r="CU2" s="27"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="38" t="s">
+      <c r="CW2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="38"/>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="26" t="s">
+      <c r="CX2" s="48"/>
+      <c r="CY2" s="48"/>
+      <c r="CZ2" s="48"/>
+      <c r="DA2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="34"/>
-      <c r="DC2" s="34"/>
-      <c r="DD2" s="35"/>
+      <c r="DB2" s="26"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="27"/>
     </row>
-    <row r="3" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="28"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="28"/>
-      <c r="BO3" s="29"/>
-      <c r="BP3" s="28"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="28"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="28"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="28"/>
-      <c r="CU3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="37"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="37"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="31"/>
+      <c r="BY3" s="40"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="31"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="28"/>
-      <c r="DB3" s="36"/>
-      <c r="DC3" s="36"/>
-      <c r="DD3" s="37"/>
+      <c r="CW3" s="48"/>
+      <c r="CX3" s="48"/>
+      <c r="CY3" s="48"/>
+      <c r="CZ3" s="48"/>
+      <c r="DA3" s="37"/>
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="30"/>
+      <c r="DD3" s="31"/>
     </row>
-    <row r="4" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="46"/>
+    <row r="4" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2874,17 +2888,17 @@
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
     </row>
-    <row r="5" spans="1:108" s="1" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2960,19 +2974,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="31" t="s">
+      <c r="BB5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="32"/>
+      <c r="BC5" s="44"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="32"/>
+      <c r="BH5" s="44"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="31" t="s">
+      <c r="BJ5" s="32" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -2994,14 +3008,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="52" t="s">
+      <c r="CA5" s="34"/>
+      <c r="CB5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="52"/>
+      <c r="CC5" s="35"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3030,7 +3044,7 @@
       <c r="DC5" s="4"/>
       <c r="DD5" s="4"/>
     </row>
-    <row r="6" spans="1:108" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:108" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3356,20 +3370,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DD3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3386,6 +3386,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -494,11 +494,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>品牌广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>展示广告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌广告</t>
+    <t xml:space="preserve">  加：+BV6:CP6其他业务利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -809,36 +813,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,12 +901,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,50 +909,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="DJ6" sqref="DJ6"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="DB6" sqref="DB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,21 +1232,21 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1254,281 +1261,289 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="33"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="48" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="50" t="s">
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="36" t="s">
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="36" t="s">
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="36" t="s">
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="27"/>
-      <c r="BM2" s="54" t="s">
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="54" t="s">
+      <c r="BN2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BO2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="36" t="s">
+      <c r="BP2" s="27"/>
+      <c r="BQ2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="27"/>
-      <c r="BS2" s="38" t="s">
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="27"/>
-      <c r="BU2" s="36" t="s">
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="27"/>
-      <c r="BZ2" s="39" t="s">
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="26" t="s">
+      <c r="CA2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="26"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="25"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="26"/>
-      <c r="CL2" s="27"/>
-      <c r="CM2" s="24" t="s">
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="48"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="35"/>
+      <c r="CM2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="25"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="27"/>
-      <c r="CU2" s="36" t="s">
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="48"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="35"/>
+      <c r="CU2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="27"/>
+      <c r="CV2" s="35"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="48" t="s">
+      <c r="CX2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="48"/>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="48"/>
-      <c r="DB2" s="41" t="s">
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="38"/>
+      <c r="DB2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
-      <c r="DF2" s="42"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="34"/>
+      <c r="DE2" s="34"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="34"/>
+      <c r="DH2" s="34"/>
+      <c r="DI2" s="34"/>
+      <c r="DJ2" s="35"/>
     </row>
     <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="53"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="46"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="37"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="40"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="29"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="31"/>
-      <c r="CM3" s="28"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="29"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="30"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="37"/>
-      <c r="CV3" s="31"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="37"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="37"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="37"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="28"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="37"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="37"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="37"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="50"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="37"/>
+      <c r="CU3" s="28"/>
+      <c r="CV3" s="37"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="48"/>
-      <c r="DB3" s="41"/>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="42"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="38"/>
+      <c r="DB3" s="28"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="36"/>
+      <c r="DE3" s="36"/>
+      <c r="DF3" s="36"/>
+      <c r="DG3" s="36"/>
+      <c r="DH3" s="36"/>
+      <c r="DI3" s="36"/>
+      <c r="DJ3" s="37"/>
     </row>
     <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1780,20 +1795,32 @@
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
       <c r="DE4" s="4"/>
-      <c r="DF4" s="4"/>
+      <c r="DF4" s="56"/>
+      <c r="DG4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DH4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DI4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ4" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1869,19 +1896,19 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="32" t="s">
+      <c r="BC5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="44"/>
+      <c r="BD5" s="32"/>
       <c r="BE5" s="33"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="32" t="s">
+      <c r="BH5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="44"/>
+      <c r="BI5" s="32"/>
       <c r="BJ5" s="33"/>
-      <c r="BK5" s="32" t="s">
+      <c r="BK5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BL5" s="33"/>
@@ -1903,14 +1930,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="34" t="s">
+      <c r="CA5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="35" t="s">
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="35"/>
+      <c r="CD5" s="52"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -1938,7 +1965,11 @@
       <c r="DC5" s="4"/>
       <c r="DD5" s="4"/>
       <c r="DE5" s="4"/>
-      <c r="DF5" s="4"/>
+      <c r="DF5" s="56"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
     </row>
     <row r="6" spans="1:114" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
@@ -2219,7 +2250,7 @@
         <v>113</v>
       </c>
       <c r="CP6" s="11" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="CQ6" s="11" t="s">
         <v>115</v>
@@ -2266,25 +2297,39 @@
       <c r="DE6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="DF6" s="4" t="s">
+      <c r="DF6" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="DG6" s="1" t="s">
+      <c r="DG6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="DH6" s="1" t="s">
+      <c r="DH6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="DI6" s="21" t="s">
+      <c r="DI6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="DJ6" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="DJ6" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="DB2:DF3"/>
+    <mergeCell ref="DB2:DJ3"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
     <mergeCell ref="BO2:BP3"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="B2:H2"/>
@@ -2300,20 +2345,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2338,20 +2369,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2366,276 +2397,276 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="48" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="50" t="s">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="36" t="s">
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="36" t="s">
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="36" t="s">
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="36" t="s">
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="54" t="s">
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="54" t="s">
+      <c r="BM2" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BN2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="36" t="s">
+      <c r="BO2" s="27"/>
+      <c r="BP2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="38" t="s">
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="27"/>
-      <c r="BT2" s="36" t="s">
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="26"/>
-      <c r="BV2" s="26"/>
-      <c r="BW2" s="26"/>
-      <c r="BX2" s="27"/>
-      <c r="BY2" s="39" t="s">
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="26" t="s">
+      <c r="BZ2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="26"/>
-      <c r="CB2" s="26"/>
-      <c r="CC2" s="26"/>
-      <c r="CD2" s="26"/>
-      <c r="CE2" s="26"/>
-      <c r="CF2" s="25"/>
-      <c r="CG2" s="25"/>
-      <c r="CH2" s="26"/>
-      <c r="CI2" s="26"/>
-      <c r="CJ2" s="26"/>
-      <c r="CK2" s="27"/>
-      <c r="CL2" s="24" t="s">
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="48"/>
+      <c r="CG2" s="48"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
-      <c r="CO2" s="26"/>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="27"/>
-      <c r="CT2" s="36" t="s">
+      <c r="CM2" s="48"/>
+      <c r="CN2" s="48"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="35"/>
+      <c r="CT2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="27"/>
+      <c r="CU2" s="35"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="48" t="s">
+      <c r="CW2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="48"/>
-      <c r="CY2" s="48"/>
-      <c r="CZ2" s="48"/>
-      <c r="DA2" s="36" t="s">
+      <c r="CX2" s="38"/>
+      <c r="CY2" s="38"/>
+      <c r="CZ2" s="38"/>
+      <c r="DA2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="26"/>
-      <c r="DC2" s="26"/>
-      <c r="DD2" s="27"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="35"/>
     </row>
     <row r="3" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="46"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="40"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="31"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="37"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="37"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="37"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="28"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="28"/>
+      <c r="BQ3" s="37"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="37"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="37"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="37"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="50"/>
+      <c r="CN3" s="50"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="37"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="37"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="48"/>
-      <c r="CX3" s="48"/>
-      <c r="CY3" s="48"/>
-      <c r="CZ3" s="48"/>
-      <c r="DA3" s="37"/>
-      <c r="DB3" s="30"/>
-      <c r="DC3" s="30"/>
-      <c r="DD3" s="31"/>
+      <c r="CW3" s="38"/>
+      <c r="CX3" s="38"/>
+      <c r="CY3" s="38"/>
+      <c r="CZ3" s="38"/>
+      <c r="DA3" s="28"/>
+      <c r="DB3" s="36"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="37"/>
     </row>
     <row r="4" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2889,16 +2920,16 @@
       <c r="DD4" s="4"/>
     </row>
     <row r="5" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -2974,19 +3005,19 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="32" t="s">
+      <c r="BB5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="44"/>
+      <c r="BC5" s="32"/>
       <c r="BD5" s="33"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="32" t="s">
+      <c r="BG5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="44"/>
+      <c r="BH5" s="32"/>
       <c r="BI5" s="33"/>
-      <c r="BJ5" s="32" t="s">
+      <c r="BJ5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="BK5" s="33"/>
@@ -3008,14 +3039,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="34" t="s">
+      <c r="BZ5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="34"/>
-      <c r="CB5" s="35" t="s">
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="35"/>
+      <c r="CC5" s="52"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3370,6 +3401,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DD3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3386,20 +3431,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="151">
   <si>
     <r>
       <rPr>
@@ -503,6 +503,22 @@
   </si>
   <si>
     <t xml:space="preserve">  加：+BV6:CP6其他业务利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBYB Order Payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBYB Trial Shipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidations Adjustments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,104 +829,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,10 +1232,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ6"/>
+  <dimension ref="A1:DN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="DB6" sqref="DB6"/>
+    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="CT1" sqref="CT1"/>
+      <selection pane="bottomLeft" activeCell="CT7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,25 +1246,25 @@
     <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1257,21 +1275,21 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="34"/>
@@ -1288,34 +1306,34 @@
       <c r="V2" s="34"/>
       <c r="W2" s="34"/>
       <c r="X2" s="35"/>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="38"/>
+      <c r="AO2" s="37"/>
       <c r="AP2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="AQ2" s="41"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="26" t="s">
+      <c r="AT2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="AU2" s="34"/>
@@ -1326,48 +1344,48 @@
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
       <c r="BB2" s="35"/>
-      <c r="BC2" s="26" t="s">
+      <c r="BC2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="BD2" s="34"/>
       <c r="BE2" s="35"/>
-      <c r="BF2" s="26" t="s">
+      <c r="BF2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
       <c r="BI2" s="34"/>
       <c r="BJ2" s="35"/>
-      <c r="BK2" s="26" t="s">
+      <c r="BK2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="BL2" s="35"/>
-      <c r="BM2" s="44" t="s">
+      <c r="BM2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="44" t="s">
+      <c r="BN2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="26" t="s">
+      <c r="BO2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="27"/>
-      <c r="BQ2" s="26" t="s">
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="BR2" s="35"/>
-      <c r="BS2" s="53" t="s">
+      <c r="BS2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="BT2" s="35"/>
-      <c r="BU2" s="26" t="s">
+      <c r="BU2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="BV2" s="34"/>
       <c r="BW2" s="34"/>
       <c r="BX2" s="34"/>
       <c r="BY2" s="35"/>
-      <c r="BZ2" s="54" t="s">
+      <c r="BZ2" s="51" t="s">
         <v>16</v>
       </c>
       <c r="CA2" s="34" t="s">
@@ -1378,172 +1396,180 @@
       <c r="CD2" s="34"/>
       <c r="CE2" s="34"/>
       <c r="CF2" s="34"/>
-      <c r="CG2" s="48"/>
-      <c r="CH2" s="48"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="45"/>
       <c r="CI2" s="34"/>
       <c r="CJ2" s="34"/>
       <c r="CK2" s="34"/>
       <c r="CL2" s="35"/>
-      <c r="CM2" s="47" t="s">
+      <c r="CM2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="48"/>
-      <c r="CO2" s="48"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="34"/>
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="26" t="s">
+      <c r="CU2" s="33" t="s">
         <v>19</v>
       </c>
       <c r="CV2" s="35"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="38" t="s">
+      <c r="CX2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="38"/>
-      <c r="DB2" s="26" t="s">
+      <c r="CY2" s="37"/>
+      <c r="CZ2" s="37"/>
+      <c r="DA2" s="37"/>
+      <c r="DB2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="34"/>
-      <c r="DD2" s="34"/>
-      <c r="DE2" s="34"/>
-      <c r="DF2" s="34"/>
-      <c r="DG2" s="34"/>
-      <c r="DH2" s="34"/>
-      <c r="DI2" s="34"/>
-      <c r="DJ2" s="35"/>
+      <c r="DC2" s="26"/>
+      <c r="DD2" s="26"/>
+      <c r="DE2" s="26"/>
+      <c r="DF2" s="26"/>
+      <c r="DG2" s="26"/>
+      <c r="DH2" s="26"/>
+      <c r="DI2" s="26"/>
+      <c r="DJ2" s="26"/>
+      <c r="DK2" s="26"/>
+      <c r="DL2" s="26"/>
+      <c r="DM2" s="26"/>
+      <c r="DN2" s="26"/>
     </row>
-    <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="26"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="34"/>
       <c r="H3" s="35"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
       <c r="AP3" s="42"/>
       <c r="AQ3" s="43"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="28"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="28"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="28"/>
-      <c r="BT3" s="37"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="36"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="50"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="37"/>
-      <c r="CM3" s="49"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="50"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="37"/>
-      <c r="CU3" s="28"/>
-      <c r="CV3" s="37"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="27"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="27"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="27"/>
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="28"/>
+      <c r="BX3" s="28"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="52"/>
+      <c r="CA3" s="28"/>
+      <c r="CB3" s="28"/>
+      <c r="CC3" s="28"/>
+      <c r="CD3" s="28"/>
+      <c r="CE3" s="28"/>
+      <c r="CF3" s="28"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="47"/>
+      <c r="CI3" s="28"/>
+      <c r="CJ3" s="28"/>
+      <c r="CK3" s="28"/>
+      <c r="CL3" s="36"/>
+      <c r="CM3" s="46"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="47"/>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="28"/>
+      <c r="CS3" s="28"/>
+      <c r="CT3" s="36"/>
+      <c r="CU3" s="27"/>
+      <c r="CV3" s="36"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="38"/>
-      <c r="DB3" s="28"/>
-      <c r="DC3" s="36"/>
-      <c r="DD3" s="36"/>
-      <c r="DE3" s="36"/>
-      <c r="DF3" s="36"/>
-      <c r="DG3" s="36"/>
-      <c r="DH3" s="36"/>
-      <c r="DI3" s="36"/>
-      <c r="DJ3" s="37"/>
+      <c r="CX3" s="37"/>
+      <c r="CY3" s="37"/>
+      <c r="CZ3" s="37"/>
+      <c r="DA3" s="37"/>
+      <c r="DB3" s="27"/>
+      <c r="DC3" s="28"/>
+      <c r="DD3" s="28"/>
+      <c r="DE3" s="28"/>
+      <c r="DF3" s="28"/>
+      <c r="DG3" s="28"/>
+      <c r="DH3" s="28"/>
+      <c r="DI3" s="28"/>
+      <c r="DJ3" s="28"/>
+      <c r="DK3" s="28"/>
+      <c r="DL3" s="28"/>
+      <c r="DM3" s="28"/>
+      <c r="DN3" s="28"/>
     </row>
-    <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="46"/>
+    <row r="4" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1821,7 @@
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
       <c r="DE4" s="4"/>
-      <c r="DF4" s="56"/>
+      <c r="DF4" s="24"/>
       <c r="DG4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1808,19 +1834,31 @@
       <c r="DJ4" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="DK4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DL4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DM4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DN4" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1896,22 +1934,22 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="31" t="s">
+      <c r="BC5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="33"/>
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="32"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="31" t="s">
+      <c r="BH5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="31" t="s">
+      <c r="BI5" s="31"/>
+      <c r="BJ5" s="32"/>
+      <c r="BK5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="33"/>
+      <c r="BL5" s="32"/>
       <c r="BM5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1930,14 +1968,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="51" t="s">
+      <c r="CA5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="52" t="s">
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="52"/>
+      <c r="CD5" s="49"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -1965,13 +2003,17 @@
       <c r="DC5" s="4"/>
       <c r="DD5" s="4"/>
       <c r="DE5" s="4"/>
-      <c r="DF5" s="56"/>
+      <c r="DF5" s="24"/>
       <c r="DG5" s="4"/>
       <c r="DH5" s="4"/>
       <c r="DI5" s="4"/>
       <c r="DJ5" s="4"/>
+      <c r="DK5" s="4"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
     </row>
-    <row r="6" spans="1:114" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:118" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2297,7 +2339,7 @@
       <c r="DE6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="DF6" s="56" t="s">
+      <c r="DF6" s="24" t="s">
         <v>141</v>
       </c>
       <c r="DG6" s="4" t="s">
@@ -2311,12 +2353,22 @@
       </c>
       <c r="DJ6" s="11" t="s">
         <v>144</v>
+      </c>
+      <c r="DK6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="DM6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DN6" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="DB2:DJ3"/>
-    <mergeCell ref="CM2:CT3"/>
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="CA5:CB5"/>
     <mergeCell ref="CC5:CD5"/>
@@ -2325,24 +2377,26 @@
     <mergeCell ref="BU2:BY3"/>
     <mergeCell ref="BZ2:BZ3"/>
     <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="BO2:BP3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BK2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BO2:BP3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="AT2:BB3"/>
+    <mergeCell ref="BC2:BE3"/>
+    <mergeCell ref="BF2:BJ3"/>
+    <mergeCell ref="DB2:DN3"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:X3"/>
     <mergeCell ref="Y2:AM3"/>
     <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="AT2:BB3"/>
-    <mergeCell ref="BC2:BE3"/>
-    <mergeCell ref="BF2:BJ3"/>
-    <mergeCell ref="BK2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="CM2:CT3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
   </mergeCells>
@@ -2353,10 +2407,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD6"/>
+  <dimension ref="A1:DJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+    <sheetView topLeftCell="CN1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="CN1" sqref="CN1"/>
+      <selection pane="bottomLeft" activeCell="CN7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2365,24 +2421,24 @@
     <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2393,20 +2449,20 @@
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
     </row>
-    <row r="2" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="34"/>
@@ -2423,34 +2479,34 @@
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
       <c r="W2" s="35"/>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="39" t="s">
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="38"/>
+      <c r="AN2" s="37"/>
       <c r="AO2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="AP2" s="41"/>
       <c r="AQ2" s="34"/>
       <c r="AR2" s="35"/>
-      <c r="AS2" s="26" t="s">
+      <c r="AS2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="AT2" s="34"/>
@@ -2461,48 +2517,48 @@
       <c r="AY2" s="34"/>
       <c r="AZ2" s="34"/>
       <c r="BA2" s="35"/>
-      <c r="BB2" s="26" t="s">
+      <c r="BB2" s="33" t="s">
         <v>8</v>
       </c>
       <c r="BC2" s="34"/>
       <c r="BD2" s="35"/>
-      <c r="BE2" s="26" t="s">
+      <c r="BE2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="BF2" s="34"/>
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
       <c r="BI2" s="35"/>
-      <c r="BJ2" s="26" t="s">
+      <c r="BJ2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="BK2" s="35"/>
-      <c r="BL2" s="44" t="s">
+      <c r="BL2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="44" t="s">
+      <c r="BM2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="26" t="s">
+      <c r="BN2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="27"/>
-      <c r="BP2" s="26" t="s">
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="33" t="s">
         <v>13</v>
       </c>
       <c r="BQ2" s="35"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BR2" s="50" t="s">
         <v>14</v>
       </c>
       <c r="BS2" s="35"/>
-      <c r="BT2" s="26" t="s">
+      <c r="BT2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="BU2" s="34"/>
       <c r="BV2" s="34"/>
       <c r="BW2" s="34"/>
       <c r="BX2" s="35"/>
-      <c r="BY2" s="54" t="s">
+      <c r="BY2" s="51" t="s">
         <v>16</v>
       </c>
       <c r="BZ2" s="34" t="s">
@@ -2513,42 +2569,48 @@
       <c r="CC2" s="34"/>
       <c r="CD2" s="34"/>
       <c r="CE2" s="34"/>
-      <c r="CF2" s="48"/>
-      <c r="CG2" s="48"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
       <c r="CH2" s="34"/>
       <c r="CI2" s="34"/>
       <c r="CJ2" s="34"/>
       <c r="CK2" s="35"/>
-      <c r="CL2" s="47" t="s">
+      <c r="CL2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="48"/>
-      <c r="CN2" s="48"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
       <c r="CO2" s="34"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="34"/>
       <c r="CR2" s="34"/>
       <c r="CS2" s="35"/>
-      <c r="CT2" s="26" t="s">
+      <c r="CT2" s="33" t="s">
         <v>19</v>
       </c>
       <c r="CU2" s="35"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="38" t="s">
+      <c r="CW2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="38"/>
-      <c r="CY2" s="38"/>
-      <c r="CZ2" s="38"/>
-      <c r="DA2" s="26" t="s">
+      <c r="CX2" s="37"/>
+      <c r="CY2" s="37"/>
+      <c r="CZ2" s="37"/>
+      <c r="DA2" s="33" t="s">
         <v>130</v>
       </c>
       <c r="DB2" s="34"/>
       <c r="DC2" s="34"/>
-      <c r="DD2" s="35"/>
+      <c r="DD2" s="34"/>
+      <c r="DE2" s="34"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="34"/>
+      <c r="DH2" s="34"/>
+      <c r="DI2" s="34"/>
+      <c r="DJ2" s="35"/>
     </row>
-    <row r="3" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="34"/>
@@ -2558,115 +2620,121 @@
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
       <c r="AO3" s="42"/>
       <c r="AP3" s="43"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="28"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="28"/>
-      <c r="BO3" s="29"/>
-      <c r="BP3" s="28"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="28"/>
-      <c r="BS3" s="37"/>
-      <c r="BT3" s="28"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="37"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-      <c r="CF3" s="50"/>
-      <c r="CG3" s="50"/>
-      <c r="CH3" s="36"/>
-      <c r="CI3" s="36"/>
-      <c r="CJ3" s="36"/>
-      <c r="CK3" s="37"/>
-      <c r="CL3" s="49"/>
-      <c r="CM3" s="50"/>
-      <c r="CN3" s="50"/>
-      <c r="CO3" s="36"/>
-      <c r="CP3" s="36"/>
-      <c r="CQ3" s="36"/>
-      <c r="CR3" s="36"/>
-      <c r="CS3" s="37"/>
-      <c r="CT3" s="28"/>
-      <c r="CU3" s="37"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="28"/>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="28"/>
+      <c r="BV3" s="28"/>
+      <c r="BW3" s="28"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="28"/>
+      <c r="CA3" s="28"/>
+      <c r="CB3" s="28"/>
+      <c r="CC3" s="28"/>
+      <c r="CD3" s="28"/>
+      <c r="CE3" s="28"/>
+      <c r="CF3" s="47"/>
+      <c r="CG3" s="47"/>
+      <c r="CH3" s="28"/>
+      <c r="CI3" s="28"/>
+      <c r="CJ3" s="28"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="46"/>
+      <c r="CM3" s="47"/>
+      <c r="CN3" s="47"/>
+      <c r="CO3" s="28"/>
+      <c r="CP3" s="28"/>
+      <c r="CQ3" s="28"/>
+      <c r="CR3" s="28"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="27"/>
+      <c r="CU3" s="36"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="38"/>
-      <c r="CX3" s="38"/>
-      <c r="CY3" s="38"/>
-      <c r="CZ3" s="38"/>
-      <c r="DA3" s="28"/>
-      <c r="DB3" s="36"/>
-      <c r="DC3" s="36"/>
-      <c r="DD3" s="37"/>
+      <c r="CW3" s="37"/>
+      <c r="CX3" s="37"/>
+      <c r="CY3" s="37"/>
+      <c r="CZ3" s="37"/>
+      <c r="DA3" s="27"/>
+      <c r="DB3" s="28"/>
+      <c r="DC3" s="28"/>
+      <c r="DD3" s="28"/>
+      <c r="DE3" s="28"/>
+      <c r="DF3" s="28"/>
+      <c r="DG3" s="28"/>
+      <c r="DH3" s="28"/>
+      <c r="DI3" s="28"/>
+      <c r="DJ3" s="36"/>
     </row>
-    <row r="4" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="46"/>
+    <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2918,18 +2986,36 @@
       <c r="DB4" s="4"/>
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
+      <c r="DE4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ4" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:108" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -3005,22 +3091,22 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="31" t="s">
+      <c r="BB5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="33"/>
+      <c r="BC5" s="31"/>
+      <c r="BD5" s="32"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="31" t="s">
+      <c r="BG5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="31" t="s">
+      <c r="BH5" s="31"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BK5" s="33"/>
+      <c r="BK5" s="32"/>
       <c r="BL5" s="4" t="s">
         <v>38</v>
       </c>
@@ -3039,14 +3125,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="52" t="s">
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="52"/>
+      <c r="CC5" s="49"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3074,8 +3160,14 @@
       <c r="DB5" s="4"/>
       <c r="DC5" s="4"/>
       <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
     </row>
-    <row r="6" spans="1:108" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:114" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3397,6 +3489,24 @@
       </c>
       <c r="DD6" s="11" t="s">
         <v>140</v>
+      </c>
+      <c r="DE6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="DF6" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DH6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="DI6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DJ6" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3415,7 +3525,7 @@
     <mergeCell ref="CB5:CC5"/>
     <mergeCell ref="CL2:CS3"/>
     <mergeCell ref="CT2:CU3"/>
-    <mergeCell ref="DA2:DD3"/>
+    <mergeCell ref="DA2:DJ3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
     <mergeCell ref="E1:P1"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="152">
   <si>
     <r>
       <rPr>
@@ -519,6 +519,10 @@
   </si>
   <si>
     <t>Liquidations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,42 +836,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,55 +926,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,12 +1236,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN6"/>
+  <dimension ref="A1:DO6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CT1" sqref="CT1"/>
-      <selection pane="bottomLeft" activeCell="CT7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="DO6" sqref="DO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,25 +1250,25 @@
     <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1275,21 +1279,21 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="34"/>
@@ -1305,35 +1309,35 @@
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
       <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="37" t="s">
+      <c r="X2" s="30"/>
+      <c r="Y2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="40" t="s">
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="41"/>
+      <c r="AQ2" s="46"/>
       <c r="AR2" s="34"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="33" t="s">
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="AU2" s="34"/>
@@ -1343,49 +1347,49 @@
       <c r="AY2" s="34"/>
       <c r="AZ2" s="34"/>
       <c r="BA2" s="34"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="33" t="s">
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="BD2" s="34"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="33" t="s">
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
       <c r="BI2" s="34"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="33" t="s">
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="35"/>
-      <c r="BM2" s="55" t="s">
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="55" t="s">
+      <c r="BN2" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="33" t="s">
+      <c r="BO2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="33" t="s">
+      <c r="BP2" s="40"/>
+      <c r="BQ2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="35"/>
-      <c r="BS2" s="50" t="s">
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="35"/>
-      <c r="BU2" s="33" t="s">
+      <c r="BT2" s="30"/>
+      <c r="BU2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="BV2" s="34"/>
       <c r="BW2" s="34"/>
       <c r="BX2" s="34"/>
-      <c r="BY2" s="35"/>
-      <c r="BZ2" s="51" t="s">
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="CA2" s="34" t="s">
@@ -1396,180 +1400,182 @@
       <c r="CD2" s="34"/>
       <c r="CE2" s="34"/>
       <c r="CF2" s="34"/>
-      <c r="CG2" s="45"/>
-      <c r="CH2" s="45"/>
+      <c r="CG2" s="38"/>
+      <c r="CH2" s="38"/>
       <c r="CI2" s="34"/>
       <c r="CJ2" s="34"/>
       <c r="CK2" s="34"/>
-      <c r="CL2" s="35"/>
-      <c r="CM2" s="44" t="s">
+      <c r="CL2" s="30"/>
+      <c r="CM2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="45"/>
-      <c r="CO2" s="45"/>
+      <c r="CN2" s="38"/>
+      <c r="CO2" s="38"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="34"/>
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
-      <c r="CT2" s="35"/>
-      <c r="CU2" s="33" t="s">
+      <c r="CT2" s="30"/>
+      <c r="CU2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="35"/>
+      <c r="CV2" s="30"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="37" t="s">
+      <c r="CX2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="37"/>
-      <c r="CZ2" s="37"/>
-      <c r="DA2" s="37"/>
-      <c r="DB2" s="25" t="s">
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="52"/>
+      <c r="DA2" s="52"/>
+      <c r="DB2" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="26"/>
-      <c r="DD2" s="26"/>
-      <c r="DE2" s="26"/>
-      <c r="DF2" s="26"/>
-      <c r="DG2" s="26"/>
-      <c r="DH2" s="26"/>
-      <c r="DI2" s="26"/>
-      <c r="DJ2" s="26"/>
-      <c r="DK2" s="26"/>
-      <c r="DL2" s="26"/>
-      <c r="DM2" s="26"/>
-      <c r="DN2" s="26"/>
+      <c r="DC2" s="52"/>
+      <c r="DD2" s="52"/>
+      <c r="DE2" s="52"/>
+      <c r="DF2" s="52"/>
+      <c r="DG2" s="52"/>
+      <c r="DH2" s="52"/>
+      <c r="DI2" s="52"/>
+      <c r="DJ2" s="52"/>
+      <c r="DK2" s="52"/>
+      <c r="DL2" s="52"/>
+      <c r="DM2" s="52"/>
+      <c r="DN2" s="52"/>
+      <c r="DO2" s="52"/>
     </row>
-    <row r="3" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="H3" s="30"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="28"/>
-      <c r="BI3" s="28"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="27"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="27"/>
-      <c r="BV3" s="28"/>
-      <c r="BW3" s="28"/>
-      <c r="BX3" s="28"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="52"/>
-      <c r="CA3" s="28"/>
-      <c r="CB3" s="28"/>
-      <c r="CC3" s="28"/>
-      <c r="CD3" s="28"/>
-      <c r="CE3" s="28"/>
-      <c r="CF3" s="28"/>
-      <c r="CG3" s="47"/>
-      <c r="CH3" s="47"/>
-      <c r="CI3" s="28"/>
-      <c r="CJ3" s="28"/>
-      <c r="CK3" s="28"/>
-      <c r="CL3" s="36"/>
-      <c r="CM3" s="46"/>
-      <c r="CN3" s="47"/>
-      <c r="CO3" s="47"/>
-      <c r="CP3" s="28"/>
-      <c r="CQ3" s="28"/>
-      <c r="CR3" s="28"/>
-      <c r="CS3" s="28"/>
-      <c r="CT3" s="36"/>
-      <c r="CU3" s="27"/>
-      <c r="CV3" s="36"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="43"/>
+      <c r="BO3" s="31"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="31"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="35"/>
+      <c r="BW3" s="35"/>
+      <c r="BX3" s="35"/>
+      <c r="BY3" s="32"/>
+      <c r="BZ3" s="37"/>
+      <c r="CA3" s="35"/>
+      <c r="CB3" s="35"/>
+      <c r="CC3" s="35"/>
+      <c r="CD3" s="35"/>
+      <c r="CE3" s="35"/>
+      <c r="CF3" s="35"/>
+      <c r="CG3" s="39"/>
+      <c r="CH3" s="39"/>
+      <c r="CI3" s="35"/>
+      <c r="CJ3" s="35"/>
+      <c r="CK3" s="35"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="56"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="39"/>
+      <c r="CP3" s="35"/>
+      <c r="CQ3" s="35"/>
+      <c r="CR3" s="35"/>
+      <c r="CS3" s="35"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="31"/>
+      <c r="CV3" s="32"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="37"/>
-      <c r="CY3" s="37"/>
-      <c r="CZ3" s="37"/>
-      <c r="DA3" s="37"/>
-      <c r="DB3" s="27"/>
-      <c r="DC3" s="28"/>
-      <c r="DD3" s="28"/>
-      <c r="DE3" s="28"/>
-      <c r="DF3" s="28"/>
-      <c r="DG3" s="28"/>
-      <c r="DH3" s="28"/>
-      <c r="DI3" s="28"/>
-      <c r="DJ3" s="28"/>
-      <c r="DK3" s="28"/>
-      <c r="DL3" s="28"/>
-      <c r="DM3" s="28"/>
-      <c r="DN3" s="28"/>
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="52"/>
+      <c r="DB3" s="52"/>
+      <c r="DC3" s="52"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="52"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="52"/>
+      <c r="DH3" s="52"/>
+      <c r="DI3" s="52"/>
+      <c r="DJ3" s="52"/>
+      <c r="DK3" s="52"/>
+      <c r="DL3" s="52"/>
+      <c r="DM3" s="52"/>
+      <c r="DN3" s="52"/>
+      <c r="DO3" s="52"/>
     </row>
-    <row r="4" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="39"/>
+    <row r="4" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1846,19 +1852,20 @@
       <c r="DN4" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="DO4" s="4"/>
     </row>
-    <row r="5" spans="1:118" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1934,22 +1941,22 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="30" t="s">
+      <c r="BC5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="31"/>
-      <c r="BE5" s="32"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="26"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="30" t="s">
+      <c r="BH5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="30" t="s">
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="32"/>
+      <c r="BL5" s="26"/>
       <c r="BM5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1968,14 +1975,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="48" t="s">
+      <c r="CA5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="49" t="s">
+      <c r="CB5" s="27"/>
+      <c r="CC5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="49"/>
+      <c r="CD5" s="28"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2012,8 +2019,9 @@
       <c r="DL5" s="4"/>
       <c r="DM5" s="4"/>
       <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
     </row>
-    <row r="6" spans="1:118" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:119" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2366,9 +2374,30 @@
       <c r="DN6" s="11" t="s">
         <v>148</v>
       </c>
+      <c r="DO6" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:X3"/>
+    <mergeCell ref="Y2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="CU2:CV3"/>
+    <mergeCell ref="CX2:DA3"/>
+    <mergeCell ref="DB2:DO3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="AT2:BB3"/>
+    <mergeCell ref="BC2:BE3"/>
+    <mergeCell ref="BF2:BJ3"/>
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="CA5:CB5"/>
     <mergeCell ref="CC5:CD5"/>
@@ -2381,24 +2410,6 @@
     <mergeCell ref="BN2:BN3"/>
     <mergeCell ref="BK2:BL3"/>
     <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="AT2:BB3"/>
-    <mergeCell ref="BC2:BE3"/>
-    <mergeCell ref="BF2:BJ3"/>
-    <mergeCell ref="DB2:DN3"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:X3"/>
-    <mergeCell ref="Y2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="CU2:CV3"/>
-    <mergeCell ref="CX2:DA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2425,20 +2436,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2453,16 +2464,16 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="34"/>
@@ -2478,35 +2489,35 @@
       <c r="T2" s="34"/>
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="37" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="38" t="s">
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="40" t="s">
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="41"/>
+      <c r="AP2" s="46"/>
       <c r="AQ2" s="34"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="33" t="s">
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="AT2" s="34"/>
@@ -2516,49 +2527,49 @@
       <c r="AX2" s="34"/>
       <c r="AY2" s="34"/>
       <c r="AZ2" s="34"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="33" t="s">
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="29" t="s">
         <v>8</v>
       </c>
       <c r="BC2" s="34"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="33" t="s">
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="BF2" s="34"/>
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="33" t="s">
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="55" t="s">
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="55" t="s">
+      <c r="BM2" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="33" t="s">
+      <c r="BN2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="33" t="s">
+      <c r="BO2" s="40"/>
+      <c r="BP2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="35"/>
-      <c r="BR2" s="50" t="s">
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="35"/>
-      <c r="BT2" s="33" t="s">
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="BU2" s="34"/>
       <c r="BV2" s="34"/>
       <c r="BW2" s="34"/>
-      <c r="BX2" s="35"/>
-      <c r="BY2" s="51" t="s">
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="BZ2" s="34" t="s">
@@ -2569,34 +2580,34 @@
       <c r="CC2" s="34"/>
       <c r="CD2" s="34"/>
       <c r="CE2" s="34"/>
-      <c r="CF2" s="45"/>
-      <c r="CG2" s="45"/>
+      <c r="CF2" s="38"/>
+      <c r="CG2" s="38"/>
       <c r="CH2" s="34"/>
       <c r="CI2" s="34"/>
       <c r="CJ2" s="34"/>
-      <c r="CK2" s="35"/>
-      <c r="CL2" s="44" t="s">
+      <c r="CK2" s="30"/>
+      <c r="CL2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="45"/>
-      <c r="CN2" s="45"/>
+      <c r="CM2" s="38"/>
+      <c r="CN2" s="38"/>
       <c r="CO2" s="34"/>
       <c r="CP2" s="34"/>
       <c r="CQ2" s="34"/>
       <c r="CR2" s="34"/>
-      <c r="CS2" s="35"/>
-      <c r="CT2" s="33" t="s">
+      <c r="CS2" s="30"/>
+      <c r="CT2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="35"/>
+      <c r="CU2" s="30"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="37" t="s">
+      <c r="CW2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="37"/>
-      <c r="CY2" s="37"/>
-      <c r="CZ2" s="37"/>
-      <c r="DA2" s="33" t="s">
+      <c r="CX2" s="52"/>
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="52"/>
+      <c r="DA2" s="29" t="s">
         <v>130</v>
       </c>
       <c r="DB2" s="34"/>
@@ -2607,134 +2618,134 @@
       <c r="DG2" s="34"/>
       <c r="DH2" s="34"/>
       <c r="DI2" s="34"/>
-      <c r="DJ2" s="35"/>
+      <c r="DJ2" s="30"/>
     </row>
     <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="28"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="27"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="28"/>
-      <c r="BV3" s="28"/>
-      <c r="BW3" s="28"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="28"/>
-      <c r="CA3" s="28"/>
-      <c r="CB3" s="28"/>
-      <c r="CC3" s="28"/>
-      <c r="CD3" s="28"/>
-      <c r="CE3" s="28"/>
-      <c r="CF3" s="47"/>
-      <c r="CG3" s="47"/>
-      <c r="CH3" s="28"/>
-      <c r="CI3" s="28"/>
-      <c r="CJ3" s="28"/>
-      <c r="CK3" s="36"/>
-      <c r="CL3" s="46"/>
-      <c r="CM3" s="47"/>
-      <c r="CN3" s="47"/>
-      <c r="CO3" s="28"/>
-      <c r="CP3" s="28"/>
-      <c r="CQ3" s="28"/>
-      <c r="CR3" s="28"/>
-      <c r="CS3" s="36"/>
-      <c r="CT3" s="27"/>
-      <c r="CU3" s="36"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="32"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="31"/>
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="35"/>
+      <c r="BW3" s="35"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="37"/>
+      <c r="BZ3" s="35"/>
+      <c r="CA3" s="35"/>
+      <c r="CB3" s="35"/>
+      <c r="CC3" s="35"/>
+      <c r="CD3" s="35"/>
+      <c r="CE3" s="35"/>
+      <c r="CF3" s="39"/>
+      <c r="CG3" s="39"/>
+      <c r="CH3" s="35"/>
+      <c r="CI3" s="35"/>
+      <c r="CJ3" s="35"/>
+      <c r="CK3" s="32"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="39"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="35"/>
+      <c r="CP3" s="35"/>
+      <c r="CQ3" s="35"/>
+      <c r="CR3" s="35"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="32"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="37"/>
-      <c r="CX3" s="37"/>
-      <c r="CY3" s="37"/>
-      <c r="CZ3" s="37"/>
-      <c r="DA3" s="27"/>
-      <c r="DB3" s="28"/>
-      <c r="DC3" s="28"/>
-      <c r="DD3" s="28"/>
-      <c r="DE3" s="28"/>
-      <c r="DF3" s="28"/>
-      <c r="DG3" s="28"/>
-      <c r="DH3" s="28"/>
-      <c r="DI3" s="28"/>
-      <c r="DJ3" s="36"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="31"/>
+      <c r="DB3" s="35"/>
+      <c r="DC3" s="35"/>
+      <c r="DD3" s="35"/>
+      <c r="DE3" s="35"/>
+      <c r="DF3" s="35"/>
+      <c r="DG3" s="35"/>
+      <c r="DH3" s="35"/>
+      <c r="DI3" s="35"/>
+      <c r="DJ3" s="32"/>
     </row>
     <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="39"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -3006,16 +3017,16 @@
       </c>
     </row>
     <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -3091,22 +3102,22 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="30" t="s">
+      <c r="BB5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="32"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="26"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="30" t="s">
+      <c r="BG5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="31"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="30" t="s">
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="BK5" s="32"/>
+      <c r="BK5" s="26"/>
       <c r="BL5" s="4" t="s">
         <v>38</v>
       </c>
@@ -3125,14 +3136,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="48" t="s">
+      <c r="BZ5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="49" t="s">
+      <c r="CA5" s="27"/>
+      <c r="CB5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="49"/>
+      <c r="CC5" s="28"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3511,20 +3522,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DJ3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3541,6 +3538,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="158">
   <si>
     <r>
       <rPr>
@@ -524,6 +524,28 @@
   <si>
     <t>销售分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告带来的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示广告带来的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌广告带来的收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 Day Total Sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Day Total Sales </t>
+  </si>
+  <si>
+    <t>14 Day Total Sales</t>
   </si>
 </sst>
 </file>
@@ -833,15 +855,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,25 +934,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -875,12 +942,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,45 +952,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,12 +1258,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO6"/>
+  <dimension ref="A1:DR6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CT1" sqref="CT1"/>
-      <selection pane="bottomLeft" activeCell="DO6" sqref="DO6"/>
+      <selection pane="bottomLeft" activeCell="DT4" sqref="DT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,25 +1272,25 @@
     <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1279,303 +1301,309 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="52" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="45" t="s">
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="30"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="31"/>
       <c r="AT2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="31"/>
       <c r="BC2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="31"/>
       <c r="BF2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
       <c r="BK2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="42" t="s">
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="42" t="s">
+      <c r="BN2" s="55" t="s">
         <v>126</v>
       </c>
       <c r="BO2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="40"/>
+      <c r="BP2" s="53"/>
       <c r="BQ2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="33" t="s">
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="30"/>
+      <c r="BT2" s="31"/>
       <c r="BU2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="34"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="36" t="s">
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CA2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="34"/>
-      <c r="CG2" s="38"/>
-      <c r="CH2" s="38"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="34"/>
-      <c r="CL2" s="30"/>
-      <c r="CM2" s="55" t="s">
+      <c r="CB2" s="30"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
+      <c r="CE2" s="30"/>
+      <c r="CF2" s="30"/>
+      <c r="CG2" s="41"/>
+      <c r="CH2" s="41"/>
+      <c r="CI2" s="30"/>
+      <c r="CJ2" s="30"/>
+      <c r="CK2" s="30"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="38"/>
-      <c r="CO2" s="38"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="34"/>
-      <c r="CT2" s="30"/>
+      <c r="CN2" s="41"/>
+      <c r="CO2" s="41"/>
+      <c r="CP2" s="30"/>
+      <c r="CQ2" s="30"/>
+      <c r="CR2" s="30"/>
+      <c r="CS2" s="30"/>
+      <c r="CT2" s="31"/>
       <c r="CU2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="30"/>
+      <c r="CV2" s="31"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="52" t="s">
+      <c r="CX2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="52"/>
-      <c r="DA2" s="52"/>
-      <c r="DB2" s="52" t="s">
+      <c r="CY2" s="35"/>
+      <c r="CZ2" s="35"/>
+      <c r="DA2" s="35"/>
+      <c r="DB2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="52"/>
-      <c r="DD2" s="52"/>
-      <c r="DE2" s="52"/>
-      <c r="DF2" s="52"/>
-      <c r="DG2" s="52"/>
-      <c r="DH2" s="52"/>
-      <c r="DI2" s="52"/>
-      <c r="DJ2" s="52"/>
-      <c r="DK2" s="52"/>
-      <c r="DL2" s="52"/>
-      <c r="DM2" s="52"/>
-      <c r="DN2" s="52"/>
-      <c r="DO2" s="52"/>
+      <c r="DC2" s="35"/>
+      <c r="DD2" s="35"/>
+      <c r="DE2" s="35"/>
+      <c r="DF2" s="35"/>
+      <c r="DG2" s="35"/>
+      <c r="DH2" s="35"/>
+      <c r="DI2" s="35"/>
+      <c r="DJ2" s="35"/>
+      <c r="DK2" s="35"/>
+      <c r="DL2" s="35"/>
+      <c r="DM2" s="35"/>
+      <c r="DN2" s="35"/>
+      <c r="DO2" s="35"/>
+      <c r="DP2" s="35"/>
+      <c r="DQ2" s="35"/>
+      <c r="DR2" s="35"/>
     </row>
-    <row r="3" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="32"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="35"/>
-      <c r="BW3" s="35"/>
-      <c r="BX3" s="35"/>
-      <c r="BY3" s="32"/>
-      <c r="BZ3" s="37"/>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="35"/>
-      <c r="CD3" s="35"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="35"/>
-      <c r="CG3" s="39"/>
-      <c r="CH3" s="39"/>
-      <c r="CI3" s="35"/>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="35"/>
-      <c r="CL3" s="32"/>
-      <c r="CM3" s="56"/>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="39"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
-      <c r="CS3" s="35"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="31"/>
-      <c r="CV3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="32"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="32"/>
+      <c r="BV3" s="33"/>
+      <c r="BW3" s="33"/>
+      <c r="BX3" s="33"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="52"/>
+      <c r="CA3" s="33"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
+      <c r="CE3" s="33"/>
+      <c r="CF3" s="33"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="33"/>
+      <c r="CJ3" s="33"/>
+      <c r="CK3" s="33"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="43"/>
+      <c r="CP3" s="33"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="33"/>
+      <c r="CS3" s="33"/>
+      <c r="CT3" s="34"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="34"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="52"/>
-      <c r="CY3" s="52"/>
-      <c r="CZ3" s="52"/>
-      <c r="DA3" s="52"/>
-      <c r="DB3" s="52"/>
-      <c r="DC3" s="52"/>
-      <c r="DD3" s="52"/>
-      <c r="DE3" s="52"/>
-      <c r="DF3" s="52"/>
-      <c r="DG3" s="52"/>
-      <c r="DH3" s="52"/>
-      <c r="DI3" s="52"/>
-      <c r="DJ3" s="52"/>
-      <c r="DK3" s="52"/>
-      <c r="DL3" s="52"/>
-      <c r="DM3" s="52"/>
-      <c r="DN3" s="52"/>
-      <c r="DO3" s="52"/>
+      <c r="CX3" s="35"/>
+      <c r="CY3" s="35"/>
+      <c r="CZ3" s="35"/>
+      <c r="DA3" s="35"/>
+      <c r="DB3" s="35"/>
+      <c r="DC3" s="35"/>
+      <c r="DD3" s="35"/>
+      <c r="DE3" s="35"/>
+      <c r="DF3" s="35"/>
+      <c r="DG3" s="35"/>
+      <c r="DH3" s="35"/>
+      <c r="DI3" s="35"/>
+      <c r="DJ3" s="35"/>
+      <c r="DK3" s="35"/>
+      <c r="DL3" s="35"/>
+      <c r="DM3" s="35"/>
+      <c r="DN3" s="35"/>
+      <c r="DO3" s="35"/>
+      <c r="DP3" s="35"/>
+      <c r="DQ3" s="35"/>
+      <c r="DR3" s="35"/>
     </row>
-    <row r="4" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="54"/>
+    <row r="4" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +1855,7 @@
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
       <c r="DE4" s="4"/>
-      <c r="DF4" s="24"/>
+      <c r="DF4" s="4"/>
       <c r="DG4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1853,19 +1881,22 @@
         <v>128</v>
       </c>
       <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
     </row>
-    <row r="5" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1941,22 +1972,22 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="25" t="s">
+      <c r="BC5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="26"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="28"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="25" t="s">
+      <c r="BH5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5" s="25" t="s">
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="26"/>
+      <c r="BL5" s="28"/>
       <c r="BM5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1975,14 +2006,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="27" t="s">
+      <c r="CA5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="27"/>
-      <c r="CC5" s="28" t="s">
+      <c r="CB5" s="48"/>
+      <c r="CC5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="28"/>
+      <c r="CD5" s="49"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2010,7 +2041,7 @@
       <c r="DC5" s="4"/>
       <c r="DD5" s="4"/>
       <c r="DE5" s="4"/>
-      <c r="DF5" s="24"/>
+      <c r="DF5" s="4"/>
       <c r="DG5" s="4"/>
       <c r="DH5" s="4"/>
       <c r="DI5" s="4"/>
@@ -2020,8 +2051,17 @@
       <c r="DM5" s="4"/>
       <c r="DN5" s="4"/>
       <c r="DO5" s="4"/>
+      <c r="DP5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="DQ5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR5" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="6" spans="1:119" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:122" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2387,7 @@
       <c r="DE6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="DF6" s="24" t="s">
+      <c r="DF6" s="4" t="s">
         <v>141</v>
       </c>
       <c r="DG6" s="4" t="s">
@@ -2376,21 +2416,30 @@
       </c>
       <c r="DO6" s="11" t="s">
         <v>151</v>
+      </c>
+      <c r="DP6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="DQ6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="DR6" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:X3"/>
-    <mergeCell ref="Y2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="BK2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="DB2:DR3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
+    <mergeCell ref="BO2:BP3"/>
+    <mergeCell ref="BN2:BN3"/>
     <mergeCell ref="CM2:CT3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
-    <mergeCell ref="DB2:DO3"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="BC5:BE5"/>
     <mergeCell ref="BH5:BJ5"/>
@@ -2403,13 +2452,13 @@
     <mergeCell ref="CC5:CD5"/>
     <mergeCell ref="BQ2:BR3"/>
     <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="BO2:BP3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BK2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:X3"/>
+    <mergeCell ref="Y2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,20 +2485,20 @@
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2464,288 +2513,288 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="52" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="53" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="45" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="30"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="31"/>
       <c r="AS2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="31"/>
       <c r="BB2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="31"/>
       <c r="BE2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="31"/>
       <c r="BJ2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="42" t="s">
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="42" t="s">
+      <c r="BM2" s="55" t="s">
         <v>126</v>
       </c>
       <c r="BN2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="40"/>
+      <c r="BO2" s="53"/>
       <c r="BP2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="33" t="s">
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="30"/>
+      <c r="BS2" s="31"/>
       <c r="BT2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="34"/>
-      <c r="BV2" s="34"/>
-      <c r="BW2" s="34"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="36" t="s">
+      <c r="BU2" s="30"/>
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="34" t="s">
+      <c r="BZ2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="34"/>
-      <c r="CB2" s="34"/>
-      <c r="CC2" s="34"/>
-      <c r="CD2" s="34"/>
-      <c r="CE2" s="34"/>
-      <c r="CF2" s="38"/>
-      <c r="CG2" s="38"/>
-      <c r="CH2" s="34"/>
-      <c r="CI2" s="34"/>
-      <c r="CJ2" s="34"/>
-      <c r="CK2" s="30"/>
-      <c r="CL2" s="55" t="s">
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="30"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
+      <c r="CE2" s="30"/>
+      <c r="CF2" s="41"/>
+      <c r="CG2" s="41"/>
+      <c r="CH2" s="30"/>
+      <c r="CI2" s="30"/>
+      <c r="CJ2" s="30"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="38"/>
-      <c r="CN2" s="38"/>
-      <c r="CO2" s="34"/>
-      <c r="CP2" s="34"/>
-      <c r="CQ2" s="34"/>
-      <c r="CR2" s="34"/>
-      <c r="CS2" s="30"/>
+      <c r="CM2" s="41"/>
+      <c r="CN2" s="41"/>
+      <c r="CO2" s="30"/>
+      <c r="CP2" s="30"/>
+      <c r="CQ2" s="30"/>
+      <c r="CR2" s="30"/>
+      <c r="CS2" s="31"/>
       <c r="CT2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="30"/>
+      <c r="CU2" s="31"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="52" t="s">
+      <c r="CW2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="52"/>
+      <c r="CX2" s="35"/>
+      <c r="CY2" s="35"/>
+      <c r="CZ2" s="35"/>
       <c r="DA2" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="34"/>
-      <c r="DC2" s="34"/>
-      <c r="DD2" s="34"/>
-      <c r="DE2" s="34"/>
-      <c r="DF2" s="34"/>
-      <c r="DG2" s="34"/>
-      <c r="DH2" s="34"/>
-      <c r="DI2" s="34"/>
-      <c r="DJ2" s="30"/>
+      <c r="DB2" s="30"/>
+      <c r="DC2" s="30"/>
+      <c r="DD2" s="30"/>
+      <c r="DE2" s="30"/>
+      <c r="DF2" s="30"/>
+      <c r="DG2" s="30"/>
+      <c r="DH2" s="30"/>
+      <c r="DI2" s="30"/>
+      <c r="DJ2" s="31"/>
     </row>
     <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="35"/>
-      <c r="BG3" s="35"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="35"/>
-      <c r="BV3" s="35"/>
-      <c r="BW3" s="35"/>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="37"/>
-      <c r="BZ3" s="35"/>
-      <c r="CA3" s="35"/>
-      <c r="CB3" s="35"/>
-      <c r="CC3" s="35"/>
-      <c r="CD3" s="35"/>
-      <c r="CE3" s="35"/>
-      <c r="CF3" s="39"/>
-      <c r="CG3" s="39"/>
-      <c r="CH3" s="35"/>
-      <c r="CI3" s="35"/>
-      <c r="CJ3" s="35"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="56"/>
-      <c r="CM3" s="39"/>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="35"/>
-      <c r="CP3" s="35"/>
-      <c r="CQ3" s="35"/>
-      <c r="CR3" s="35"/>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="31"/>
-      <c r="CU3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="33"/>
+      <c r="BV3" s="33"/>
+      <c r="BW3" s="33"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="33"/>
+      <c r="CA3" s="33"/>
+      <c r="CB3" s="33"/>
+      <c r="CC3" s="33"/>
+      <c r="CD3" s="33"/>
+      <c r="CE3" s="33"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="33"/>
+      <c r="CI3" s="33"/>
+      <c r="CJ3" s="33"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="33"/>
+      <c r="CP3" s="33"/>
+      <c r="CQ3" s="33"/>
+      <c r="CR3" s="33"/>
+      <c r="CS3" s="34"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="34"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="52"/>
-      <c r="CX3" s="52"/>
-      <c r="CY3" s="52"/>
-      <c r="CZ3" s="52"/>
-      <c r="DA3" s="31"/>
-      <c r="DB3" s="35"/>
-      <c r="DC3" s="35"/>
-      <c r="DD3" s="35"/>
-      <c r="DE3" s="35"/>
-      <c r="DF3" s="35"/>
-      <c r="DG3" s="35"/>
-      <c r="DH3" s="35"/>
-      <c r="DI3" s="35"/>
-      <c r="DJ3" s="32"/>
+      <c r="CW3" s="35"/>
+      <c r="CX3" s="35"/>
+      <c r="CY3" s="35"/>
+      <c r="CZ3" s="35"/>
+      <c r="DA3" s="32"/>
+      <c r="DB3" s="33"/>
+      <c r="DC3" s="33"/>
+      <c r="DD3" s="33"/>
+      <c r="DE3" s="33"/>
+      <c r="DF3" s="33"/>
+      <c r="DG3" s="33"/>
+      <c r="DH3" s="33"/>
+      <c r="DI3" s="33"/>
+      <c r="DJ3" s="34"/>
     </row>
     <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -3017,16 +3066,16 @@
       </c>
     </row>
     <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -3102,22 +3151,22 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="25" t="s">
+      <c r="BB5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="26"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="28"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="25" t="s">
+      <c r="BG5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="25" t="s">
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BK5" s="26"/>
+      <c r="BK5" s="28"/>
       <c r="BL5" s="4" t="s">
         <v>38</v>
       </c>
@@ -3136,14 +3185,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="27" t="s">
+      <c r="BZ5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="27"/>
-      <c r="CB5" s="28" t="s">
+      <c r="CA5" s="48"/>
+      <c r="CB5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="28"/>
+      <c r="CC5" s="49"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3522,6 +3571,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DJ3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3538,20 +3601,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="176">
   <si>
     <r>
       <rPr>
@@ -546,6 +546,73 @@
   </si>
   <si>
     <t>14 Day Total Sales</t>
+  </si>
+  <si>
+    <t>0-14月产品实际销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14月产品+实际销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-14月产品业绩额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14月产品+业绩额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品月份小于14的 显示出来 并在最下面汇总 只在店铺sku表显示</t>
+  </si>
+  <si>
+    <t>产品月份大于=14的 显示出来 并在最下面汇总 只在店铺sku表显示</t>
+  </si>
+  <si>
+    <t>（期初库存+期末库存）/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务利润/平均库存价值</t>
+  </si>
+  <si>
+    <t>360/库存周转天数</t>
+  </si>
+  <si>
+    <t>AROI*周转次数</t>
+  </si>
+  <si>
+    <t>平均库存价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selling fees/-0.17 产品月份大于=14的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月销售价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AROI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周转次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI考核系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selling fees/-0.17  产品月份小于14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购成本+FBA头程成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,39 +925,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,57 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,12 +1325,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR6"/>
+  <dimension ref="A1:EA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CT1" sqref="CT1"/>
-      <selection pane="bottomLeft" activeCell="DT4" sqref="DT4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1272,25 +1339,25 @@
     <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1301,187 +1368,196 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="35" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="44" t="s">
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="29" t="s">
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="29" t="s">
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="29" t="s">
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="29" t="s">
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="31"/>
-      <c r="BM2" s="55" t="s">
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="55" t="s">
+      <c r="BN2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="53"/>
-      <c r="BQ2" s="29" t="s">
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="31"/>
-      <c r="BS2" s="50" t="s">
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="29" t="s">
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="51" t="s">
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="32"/>
+      <c r="BY2" s="26"/>
+      <c r="BZ2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="30"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="30"/>
-      <c r="CG2" s="41"/>
-      <c r="CH2" s="41"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="30"/>
-      <c r="CK2" s="30"/>
-      <c r="CL2" s="31"/>
+      <c r="CB2" s="32"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="32"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="32"/>
+      <c r="CJ2" s="32"/>
+      <c r="CK2" s="32"/>
+      <c r="CL2" s="26"/>
       <c r="CM2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="41"/>
-      <c r="CO2" s="41"/>
-      <c r="CP2" s="30"/>
-      <c r="CQ2" s="30"/>
-      <c r="CR2" s="30"/>
-      <c r="CS2" s="30"/>
-      <c r="CT2" s="31"/>
-      <c r="CU2" s="29" t="s">
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="32"/>
+      <c r="CQ2" s="32"/>
+      <c r="CR2" s="32"/>
+      <c r="CS2" s="32"/>
+      <c r="CT2" s="26"/>
+      <c r="CU2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="31"/>
+      <c r="CV2" s="26"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="35" t="s">
+      <c r="CX2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="35"/>
-      <c r="CZ2" s="35"/>
-      <c r="DA2" s="35"/>
-      <c r="DB2" s="35" t="s">
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="35"/>
-      <c r="DD2" s="35"/>
-      <c r="DE2" s="35"/>
-      <c r="DF2" s="35"/>
-      <c r="DG2" s="35"/>
-      <c r="DH2" s="35"/>
-      <c r="DI2" s="35"/>
-      <c r="DJ2" s="35"/>
-      <c r="DK2" s="35"/>
-      <c r="DL2" s="35"/>
-      <c r="DM2" s="35"/>
-      <c r="DN2" s="35"/>
-      <c r="DO2" s="35"/>
-      <c r="DP2" s="35"/>
-      <c r="DQ2" s="35"/>
-      <c r="DR2" s="35"/>
+      <c r="DC2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DE2" s="31"/>
+      <c r="DF2" s="31"/>
+      <c r="DG2" s="31"/>
+      <c r="DH2" s="31"/>
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="31"/>
+      <c r="DK2" s="31"/>
+      <c r="DL2" s="31"/>
+      <c r="DM2" s="31"/>
+      <c r="DN2" s="31"/>
+      <c r="DO2" s="31"/>
+      <c r="DP2" s="31"/>
+      <c r="DQ2" s="31"/>
+      <c r="DR2" s="31"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
     </row>
-    <row r="3" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="32"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
@@ -1495,29 +1571,29 @@
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="47"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
       <c r="AR3" s="33"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="32"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="27"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="33"/>
       <c r="AW3" s="33"/>
@@ -1525,85 +1601,94 @@
       <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
       <c r="BA3" s="33"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="32"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="27"/>
       <c r="BD3" s="33"/>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="32"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="27"/>
       <c r="BG3" s="33"/>
       <c r="BH3" s="33"/>
       <c r="BI3" s="33"/>
-      <c r="BJ3" s="34"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="34"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="34"/>
-      <c r="BU3" s="32"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="28"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="27"/>
+      <c r="BR3" s="28"/>
+      <c r="BS3" s="27"/>
+      <c r="BT3" s="28"/>
+      <c r="BU3" s="27"/>
       <c r="BV3" s="33"/>
       <c r="BW3" s="33"/>
       <c r="BX3" s="33"/>
-      <c r="BY3" s="34"/>
-      <c r="BZ3" s="52"/>
+      <c r="BY3" s="28"/>
+      <c r="BZ3" s="35"/>
       <c r="CA3" s="33"/>
       <c r="CB3" s="33"/>
       <c r="CC3" s="33"/>
       <c r="CD3" s="33"/>
       <c r="CE3" s="33"/>
       <c r="CF3" s="33"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
+      <c r="CG3" s="37"/>
+      <c r="CH3" s="37"/>
       <c r="CI3" s="33"/>
       <c r="CJ3" s="33"/>
       <c r="CK3" s="33"/>
-      <c r="CL3" s="34"/>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
+      <c r="CL3" s="28"/>
+      <c r="CM3" s="41"/>
+      <c r="CN3" s="37"/>
+      <c r="CO3" s="37"/>
       <c r="CP3" s="33"/>
       <c r="CQ3" s="33"/>
       <c r="CR3" s="33"/>
       <c r="CS3" s="33"/>
-      <c r="CT3" s="34"/>
-      <c r="CU3" s="32"/>
-      <c r="CV3" s="34"/>
+      <c r="CT3" s="28"/>
+      <c r="CU3" s="27"/>
+      <c r="CV3" s="28"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="35"/>
-      <c r="CY3" s="35"/>
-      <c r="CZ3" s="35"/>
-      <c r="DA3" s="35"/>
-      <c r="DB3" s="35"/>
-      <c r="DC3" s="35"/>
-      <c r="DD3" s="35"/>
-      <c r="DE3" s="35"/>
-      <c r="DF3" s="35"/>
-      <c r="DG3" s="35"/>
-      <c r="DH3" s="35"/>
-      <c r="DI3" s="35"/>
-      <c r="DJ3" s="35"/>
-      <c r="DK3" s="35"/>
-      <c r="DL3" s="35"/>
-      <c r="DM3" s="35"/>
-      <c r="DN3" s="35"/>
-      <c r="DO3" s="35"/>
-      <c r="DP3" s="35"/>
-      <c r="DQ3" s="35"/>
-      <c r="DR3" s="35"/>
+      <c r="CX3" s="31"/>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="31"/>
+      <c r="DB3" s="31"/>
+      <c r="DC3" s="31"/>
+      <c r="DD3" s="31"/>
+      <c r="DE3" s="31"/>
+      <c r="DF3" s="31"/>
+      <c r="DG3" s="31"/>
+      <c r="DH3" s="31"/>
+      <c r="DI3" s="31"/>
+      <c r="DJ3" s="31"/>
+      <c r="DK3" s="31"/>
+      <c r="DL3" s="31"/>
+      <c r="DM3" s="31"/>
+      <c r="DN3" s="31"/>
+      <c r="DO3" s="31"/>
+      <c r="DP3" s="31"/>
+      <c r="DQ3" s="31"/>
+      <c r="DR3" s="31"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
     </row>
-    <row r="4" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+    <row r="4" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1884,9 +1969,27 @@
       <c r="DP4" s="4"/>
       <c r="DQ4" s="4"/>
       <c r="DR4" s="4"/>
+      <c r="DS4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DT4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DU4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DV4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DW4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DX4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="33"/>
@@ -1896,7 +1999,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -1972,22 +2075,22 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="26" t="s">
+      <c r="BC5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="27"/>
-      <c r="BE5" s="28"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="44"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="26" t="s">
+      <c r="BH5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="27"/>
-      <c r="BJ5" s="28"/>
-      <c r="BK5" s="26" t="s">
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="28"/>
+      <c r="BL5" s="44"/>
       <c r="BM5" s="4" t="s">
         <v>38</v>
       </c>
@@ -2006,14 +2109,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="48" t="s">
+      <c r="CA5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="48"/>
-      <c r="CC5" s="49" t="s">
+      <c r="CB5" s="49"/>
+      <c r="CC5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="49"/>
+      <c r="CD5" s="50"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2060,8 +2163,35 @@
       <c r="DR5" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="DS5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="DT5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="DV5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DY5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DZ5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="EA5" s="11" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="6" spans="1:122" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:131" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2426,9 +2556,55 @@
       <c r="DR6" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="DS6" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DT6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="DW6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="DX6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="DY6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="DZ6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA6" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E1:Q1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:X3"/>
+    <mergeCell ref="Y2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:H4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="AT2:BB3"/>
+    <mergeCell ref="BC2:BE3"/>
+    <mergeCell ref="BF2:BJ3"/>
     <mergeCell ref="BK2:BL3"/>
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="DB2:DR3"/>
@@ -2440,39 +2616,21 @@
     <mergeCell ref="CM2:CT3"/>
     <mergeCell ref="CU2:CV3"/>
     <mergeCell ref="CX2:DA3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="AT2:BB3"/>
-    <mergeCell ref="BC2:BE3"/>
-    <mergeCell ref="BF2:BJ3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="E1:Q1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:X3"/>
-    <mergeCell ref="Y2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="F3:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ6"/>
+  <dimension ref="A1:DO6"/>
   <sheetViews>
-    <sheetView topLeftCell="CN1" workbookViewId="0">
+    <sheetView topLeftCell="BL1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CN1" sqref="CN1"/>
-      <selection pane="bottomLeft" activeCell="CN7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="CS6" sqref="BM6:CS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2481,24 +2639,24 @@
     <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2509,178 +2667,183 @@
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
     </row>
-    <row r="2" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="35" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="36" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="44" t="s">
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="29" t="s">
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="29" t="s">
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="29" t="s">
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="29" t="s">
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="31"/>
-      <c r="BL2" s="55" t="s">
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="55" t="s">
+      <c r="BM2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="53"/>
-      <c r="BP2" s="29" t="s">
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="31"/>
-      <c r="BR2" s="50" t="s">
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="29" t="s">
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="51" t="s">
+      <c r="BU2" s="32"/>
+      <c r="BV2" s="32"/>
+      <c r="BW2" s="32"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="30"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="41"/>
-      <c r="CG2" s="41"/>
-      <c r="CH2" s="30"/>
-      <c r="CI2" s="30"/>
-      <c r="CJ2" s="30"/>
-      <c r="CK2" s="31"/>
+      <c r="CA2" s="32"/>
+      <c r="CB2" s="32"/>
+      <c r="CC2" s="32"/>
+      <c r="CD2" s="32"/>
+      <c r="CE2" s="32"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="32"/>
+      <c r="CI2" s="32"/>
+      <c r="CJ2" s="32"/>
+      <c r="CK2" s="26"/>
       <c r="CL2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="41"/>
-      <c r="CN2" s="41"/>
-      <c r="CO2" s="30"/>
-      <c r="CP2" s="30"/>
-      <c r="CQ2" s="30"/>
-      <c r="CR2" s="30"/>
-      <c r="CS2" s="31"/>
-      <c r="CT2" s="29" t="s">
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="32"/>
+      <c r="CP2" s="32"/>
+      <c r="CQ2" s="32"/>
+      <c r="CR2" s="32"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="31"/>
+      <c r="CU2" s="26"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="35" t="s">
+      <c r="CW2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="35"/>
-      <c r="CY2" s="35"/>
-      <c r="CZ2" s="35"/>
-      <c r="DA2" s="29" t="s">
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="30"/>
-      <c r="DC2" s="30"/>
-      <c r="DD2" s="30"/>
-      <c r="DE2" s="30"/>
-      <c r="DF2" s="30"/>
-      <c r="DG2" s="30"/>
-      <c r="DH2" s="30"/>
-      <c r="DI2" s="30"/>
-      <c r="DJ2" s="31"/>
+      <c r="DB2" s="32"/>
+      <c r="DC2" s="32"/>
+      <c r="DD2" s="32"/>
+      <c r="DE2" s="32"/>
+      <c r="DF2" s="32"/>
+      <c r="DG2" s="32"/>
+      <c r="DH2" s="32"/>
+      <c r="DI2" s="32"/>
+      <c r="DJ2" s="26"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
     </row>
-    <row r="3" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="32"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -2694,29 +2857,29 @@
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="47"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="48"/>
       <c r="AQ3" s="33"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="32"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="27"/>
       <c r="AT3" s="33"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="33"/>
@@ -2724,59 +2887,59 @@
       <c r="AX3" s="33"/>
       <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="32"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="27"/>
       <c r="BC3" s="33"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="32"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="27"/>
       <c r="BF3" s="33"/>
       <c r="BG3" s="33"/>
       <c r="BH3" s="33"/>
-      <c r="BI3" s="34"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="34"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="34"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="32"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="28"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="28"/>
+      <c r="BT3" s="27"/>
       <c r="BU3" s="33"/>
       <c r="BV3" s="33"/>
       <c r="BW3" s="33"/>
-      <c r="BX3" s="34"/>
-      <c r="BY3" s="52"/>
+      <c r="BX3" s="28"/>
+      <c r="BY3" s="35"/>
       <c r="BZ3" s="33"/>
       <c r="CA3" s="33"/>
       <c r="CB3" s="33"/>
       <c r="CC3" s="33"/>
       <c r="CD3" s="33"/>
       <c r="CE3" s="33"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
+      <c r="CF3" s="37"/>
+      <c r="CG3" s="37"/>
       <c r="CH3" s="33"/>
       <c r="CI3" s="33"/>
       <c r="CJ3" s="33"/>
-      <c r="CK3" s="34"/>
-      <c r="CL3" s="42"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
+      <c r="CK3" s="28"/>
+      <c r="CL3" s="41"/>
+      <c r="CM3" s="37"/>
+      <c r="CN3" s="37"/>
       <c r="CO3" s="33"/>
       <c r="CP3" s="33"/>
       <c r="CQ3" s="33"/>
       <c r="CR3" s="33"/>
-      <c r="CS3" s="34"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="34"/>
+      <c r="CS3" s="28"/>
+      <c r="CT3" s="27"/>
+      <c r="CU3" s="28"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="35"/>
-      <c r="CX3" s="35"/>
-      <c r="CY3" s="35"/>
-      <c r="CZ3" s="35"/>
-      <c r="DA3" s="32"/>
+      <c r="CW3" s="31"/>
+      <c r="CX3" s="31"/>
+      <c r="CY3" s="31"/>
+      <c r="CZ3" s="31"/>
+      <c r="DA3" s="27"/>
       <c r="DB3" s="33"/>
       <c r="DC3" s="33"/>
       <c r="DD3" s="33"/>
@@ -2785,16 +2948,21 @@
       <c r="DG3" s="33"/>
       <c r="DH3" s="33"/>
       <c r="DI3" s="33"/>
-      <c r="DJ3" s="34"/>
+      <c r="DJ3" s="28"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
     </row>
-    <row r="4" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+    <row r="4" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -3064,9 +3232,15 @@
       <c r="DJ4" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="DK4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:114" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="33"/>
@@ -3075,7 +3249,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -3151,22 +3325,22 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="26" t="s">
+      <c r="BB5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="27"/>
-      <c r="BD5" s="28"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="44"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="26" t="s">
+      <c r="BG5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="27"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="26" t="s">
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="BK5" s="28"/>
+      <c r="BK5" s="44"/>
       <c r="BL5" s="4" t="s">
         <v>38</v>
       </c>
@@ -3185,14 +3359,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="48" t="s">
+      <c r="BZ5" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="48"/>
-      <c r="CB5" s="49" t="s">
+      <c r="CA5" s="49"/>
+      <c r="CB5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="49"/>
+      <c r="CC5" s="50"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3226,8 +3400,23 @@
       <c r="DH5" s="4"/>
       <c r="DI5" s="4"/>
       <c r="DJ5" s="4"/>
+      <c r="DK5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="DL5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="DN5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="DO5" s="11" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="6" spans="1:114" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:119" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3568,23 +3757,24 @@
       <c r="DJ6" s="11" t="s">
         <v>148</v>
       </c>
+      <c r="DK6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="DL6" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="DM6" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN6" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO6" s="11" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DJ3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3601,6 +3791,20 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/finance/financialStatementTemplate.xlsx
+++ b/src/main/resources/template/finance/financialStatementTemplate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="179">
   <si>
     <r>
       <rPr>
@@ -613,6 +613,15 @@
   <si>
     <t>采购成本+FBA头程成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月发送价值</t>
+  </si>
+  <si>
+    <t>当月发送价值(货值)</t>
+  </si>
+  <si>
+    <t>当月发送价值(头程)</t>
   </si>
 </sst>
 </file>
@@ -925,33 +934,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,51 +1028,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,12 +1334,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EA6"/>
+  <dimension ref="A1:ED6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CT1" sqref="CT1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1339,25 +1348,25 @@
     <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:134" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="BP1" s="3"/>
@@ -1368,173 +1377,173 @@
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
     </row>
-    <row r="2" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:134" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="31" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="53" t="s">
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="45" t="s">
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="25" t="s">
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="25" t="s">
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="25" t="s">
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="25" t="s">
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="29" t="s">
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="25" t="s">
+      <c r="BP2" s="53"/>
+      <c r="BQ2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BR2" s="26"/>
-      <c r="BS2" s="51" t="s">
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="25" t="s">
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="26"/>
-      <c r="BZ2" s="34" t="s">
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="32" t="s">
+      <c r="CA2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="32"/>
-      <c r="CJ2" s="32"/>
-      <c r="CK2" s="32"/>
-      <c r="CL2" s="26"/>
-      <c r="CM2" s="40" t="s">
+      <c r="CB2" s="30"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
+      <c r="CE2" s="30"/>
+      <c r="CF2" s="30"/>
+      <c r="CG2" s="51"/>
+      <c r="CH2" s="51"/>
+      <c r="CI2" s="30"/>
+      <c r="CJ2" s="30"/>
+      <c r="CK2" s="30"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="36"/>
-      <c r="CP2" s="32"/>
-      <c r="CQ2" s="32"/>
-      <c r="CR2" s="32"/>
-      <c r="CS2" s="32"/>
-      <c r="CT2" s="26"/>
-      <c r="CU2" s="25" t="s">
+      <c r="CN2" s="51"/>
+      <c r="CO2" s="51"/>
+      <c r="CP2" s="30"/>
+      <c r="CQ2" s="30"/>
+      <c r="CR2" s="30"/>
+      <c r="CS2" s="30"/>
+      <c r="CT2" s="31"/>
+      <c r="CU2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="CV2" s="26"/>
+      <c r="CV2" s="31"/>
       <c r="CW2" s="5"/>
-      <c r="CX2" s="31" t="s">
+      <c r="CX2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CY2" s="31"/>
-      <c r="CZ2" s="31"/>
-      <c r="DA2" s="31"/>
-      <c r="DB2" s="31" t="s">
+      <c r="CY2" s="35"/>
+      <c r="CZ2" s="35"/>
+      <c r="DA2" s="35"/>
+      <c r="DB2" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="DC2" s="31"/>
-      <c r="DD2" s="31"/>
-      <c r="DE2" s="31"/>
-      <c r="DF2" s="31"/>
-      <c r="DG2" s="31"/>
-      <c r="DH2" s="31"/>
-      <c r="DI2" s="31"/>
-      <c r="DJ2" s="31"/>
-      <c r="DK2" s="31"/>
-      <c r="DL2" s="31"/>
-      <c r="DM2" s="31"/>
-      <c r="DN2" s="31"/>
-      <c r="DO2" s="31"/>
-      <c r="DP2" s="31"/>
-      <c r="DQ2" s="31"/>
-      <c r="DR2" s="31"/>
+      <c r="DC2" s="35"/>
+      <c r="DD2" s="35"/>
+      <c r="DE2" s="35"/>
+      <c r="DF2" s="35"/>
+      <c r="DG2" s="35"/>
+      <c r="DH2" s="35"/>
+      <c r="DI2" s="35"/>
+      <c r="DJ2" s="35"/>
+      <c r="DK2" s="35"/>
+      <c r="DL2" s="35"/>
+      <c r="DM2" s="35"/>
+      <c r="DN2" s="35"/>
+      <c r="DO2" s="35"/>
+      <c r="DP2" s="35"/>
+      <c r="DQ2" s="35"/>
+      <c r="DR2" s="35"/>
       <c r="DS2" s="4"/>
       <c r="DT2" s="4"/>
       <c r="DU2" s="4"/>
@@ -1544,20 +1553,23 @@
       <c r="DY2" s="4"/>
       <c r="DZ2" s="4"/>
       <c r="EA2" s="4"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
     </row>
-    <row r="3" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:134" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="27"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
@@ -1571,29 +1583,29 @@
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="48"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="46"/>
       <c r="AR3" s="33"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="27"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="32"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="33"/>
       <c r="AW3" s="33"/>
@@ -1601,75 +1613,75 @@
       <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
       <c r="BA3" s="33"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="27"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="32"/>
       <c r="BD3" s="33"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="27"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="32"/>
       <c r="BG3" s="33"/>
       <c r="BH3" s="33"/>
       <c r="BI3" s="33"/>
-      <c r="BJ3" s="28"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="28"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="28"/>
-      <c r="BS3" s="27"/>
-      <c r="BT3" s="28"/>
-      <c r="BU3" s="27"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="48"/>
+      <c r="BO3" s="32"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="32"/>
       <c r="BV3" s="33"/>
       <c r="BW3" s="33"/>
       <c r="BX3" s="33"/>
-      <c r="BY3" s="28"/>
-      <c r="BZ3" s="35"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="50"/>
       <c r="CA3" s="33"/>
       <c r="CB3" s="33"/>
       <c r="CC3" s="33"/>
       <c r="CD3" s="33"/>
       <c r="CE3" s="33"/>
       <c r="CF3" s="33"/>
-      <c r="CG3" s="37"/>
-      <c r="CH3" s="37"/>
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="52"/>
       <c r="CI3" s="33"/>
       <c r="CJ3" s="33"/>
       <c r="CK3" s="33"/>
-      <c r="CL3" s="28"/>
-      <c r="CM3" s="41"/>
-      <c r="CN3" s="37"/>
-      <c r="CO3" s="37"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="56"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52"/>
       <c r="CP3" s="33"/>
       <c r="CQ3" s="33"/>
       <c r="CR3" s="33"/>
       <c r="CS3" s="33"/>
-      <c r="CT3" s="28"/>
-      <c r="CU3" s="27"/>
-      <c r="CV3" s="28"/>
+      <c r="CT3" s="34"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="34"/>
       <c r="CW3" s="6"/>
-      <c r="CX3" s="31"/>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="31"/>
-      <c r="DA3" s="31"/>
-      <c r="DB3" s="31"/>
-      <c r="DC3" s="31"/>
-      <c r="DD3" s="31"/>
-      <c r="DE3" s="31"/>
-      <c r="DF3" s="31"/>
-      <c r="DG3" s="31"/>
-      <c r="DH3" s="31"/>
-      <c r="DI3" s="31"/>
-      <c r="DJ3" s="31"/>
-      <c r="DK3" s="31"/>
-      <c r="DL3" s="31"/>
-      <c r="DM3" s="31"/>
-      <c r="DN3" s="31"/>
-      <c r="DO3" s="31"/>
-      <c r="DP3" s="31"/>
-      <c r="DQ3" s="31"/>
-      <c r="DR3" s="31"/>
+      <c r="CX3" s="35"/>
+      <c r="CY3" s="35"/>
+      <c r="CZ3" s="35"/>
+      <c r="DA3" s="35"/>
+      <c r="DB3" s="35"/>
+      <c r="DC3" s="35"/>
+      <c r="DD3" s="35"/>
+      <c r="DE3" s="35"/>
+      <c r="DF3" s="35"/>
+      <c r="DG3" s="35"/>
+      <c r="DH3" s="35"/>
+      <c r="DI3" s="35"/>
+      <c r="DJ3" s="35"/>
+      <c r="DK3" s="35"/>
+      <c r="DL3" s="35"/>
+      <c r="DM3" s="35"/>
+      <c r="DN3" s="35"/>
+      <c r="DO3" s="35"/>
+      <c r="DP3" s="35"/>
+      <c r="DQ3" s="35"/>
+      <c r="DR3" s="35"/>
       <c r="DS3" s="4"/>
       <c r="DT3" s="4"/>
       <c r="DU3" s="4"/>
@@ -1679,16 +1691,19 @@
       <c r="DY3" s="4"/>
       <c r="DZ3" s="4"/>
       <c r="EA3" s="4"/>
+      <c r="EB3" s="11"/>
+      <c r="EC3" s="11"/>
+      <c r="ED3" s="11"/>
     </row>
-    <row r="4" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+    <row r="4" spans="1:134" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1987,9 +2002,18 @@
       <c r="DX4" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="EB4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="EC4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="ED4" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:131" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:134" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="33"/>
@@ -1999,7 +2023,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -2075,22 +2099,22 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
-      <c r="BC5" s="42" t="s">
+      <c r="BC5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="44"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="28"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
-      <c r="BH5" s="42" t="s">
+      <c r="BH5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="42" t="s">
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="44"/>
+      <c r="BL5" s="28"/>
       <c r="BM5" s="4" t="s">
         <v>38</v>
       </c>
@@ -2109,14 +2133,14 @@
       <c r="BX5" s="4"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="9"/>
-      <c r="CA5" s="49" t="s">
+      <c r="CA5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="CB5" s="49"/>
-      <c r="CC5" s="50" t="s">
+      <c r="CB5" s="40"/>
+      <c r="CC5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="CD5" s="50"/>
+      <c r="CD5" s="41"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="9"/>
@@ -2190,8 +2214,17 @@
       <c r="EA5" s="11" t="s">
         <v>167</v>
       </c>
+      <c r="EB5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED5" s="11" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="6" spans="1:131" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:134" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -2583,9 +2616,35 @@
       <c r="EA6" s="11" t="s">
         <v>173</v>
       </c>
+      <c r="EB6" s="11"/>
+      <c r="EC6" s="11"/>
+      <c r="ED6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="DB2:DR3"/>
+    <mergeCell ref="BU2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CL3"/>
+    <mergeCell ref="BO2:BP3"/>
+    <mergeCell ref="CM2:CT3"/>
+    <mergeCell ref="CU2:CV3"/>
+    <mergeCell ref="CX2:DA3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="AT2:BB3"/>
+    <mergeCell ref="BC2:BE3"/>
+    <mergeCell ref="BF2:BJ3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BQ2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BK2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
     <mergeCell ref="E1:Q1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:X3"/>
@@ -2593,29 +2652,6 @@
     <mergeCell ref="AN2:AO3"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="F3:H4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BQ2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="BC5:BE5"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="AT2:BB3"/>
-    <mergeCell ref="BC2:BE3"/>
-    <mergeCell ref="BF2:BJ3"/>
-    <mergeCell ref="BK2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="DB2:DR3"/>
-    <mergeCell ref="BU2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CL3"/>
-    <mergeCell ref="BO2:BP3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="CM2:CT3"/>
-    <mergeCell ref="CU2:CV3"/>
-    <mergeCell ref="CX2:DA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2625,12 +2661,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO6"/>
+  <dimension ref="A1:DR6"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" workbookViewId="0">
+    <sheetView topLeftCell="CL1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CN1" sqref="CN1"/>
-      <selection pane="bottomLeft" activeCell="CS6" sqref="BM6:CS6"/>
+      <selection pane="bottomLeft" activeCell="DP1" sqref="DP1:DR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2639,24 +2675,24 @@
     <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="BO1" s="3"/>
@@ -2667,183 +2703,186 @@
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
     </row>
-    <row r="2" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="31" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="53" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="45" t="s">
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="25" t="s">
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="25" t="s">
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="25" t="s">
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="25" t="s">
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="29" t="s">
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="25" t="s">
+      <c r="BO2" s="53"/>
+      <c r="BP2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="26"/>
-      <c r="BR2" s="51" t="s">
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="26"/>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="32"/>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="34" t="s">
+      <c r="BU2" s="30"/>
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="32" t="s">
+      <c r="BZ2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CA2" s="32"/>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32"/>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="32"/>
-      <c r="CI2" s="32"/>
-      <c r="CJ2" s="32"/>
-      <c r="CK2" s="26"/>
-      <c r="CL2" s="40" t="s">
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="30"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
+      <c r="CE2" s="30"/>
+      <c r="CF2" s="51"/>
+      <c r="CG2" s="51"/>
+      <c r="CH2" s="30"/>
+      <c r="CI2" s="30"/>
+      <c r="CJ2" s="30"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="CM2" s="36"/>
-      <c r="CN2" s="36"/>
-      <c r="CO2" s="32"/>
-      <c r="CP2" s="32"/>
-      <c r="CQ2" s="32"/>
-      <c r="CR2" s="32"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="25" t="s">
+      <c r="CM2" s="51"/>
+      <c r="CN2" s="51"/>
+      <c r="CO2" s="30"/>
+      <c r="CP2" s="30"/>
+      <c r="CQ2" s="30"/>
+      <c r="CR2" s="30"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="CU2" s="26"/>
+      <c r="CU2" s="31"/>
       <c r="CV2" s="22"/>
-      <c r="CW2" s="31" t="s">
+      <c r="CW2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="CX2" s="31"/>
-      <c r="CY2" s="31"/>
-      <c r="CZ2" s="31"/>
-      <c r="DA2" s="25" t="s">
+      <c r="CX2" s="35"/>
+      <c r="CY2" s="35"/>
+      <c r="CZ2" s="35"/>
+      <c r="DA2" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="DB2" s="32"/>
-      <c r="DC2" s="32"/>
-      <c r="DD2" s="32"/>
-      <c r="DE2" s="32"/>
-      <c r="DF2" s="32"/>
-      <c r="DG2" s="32"/>
-      <c r="DH2" s="32"/>
-      <c r="DI2" s="32"/>
-      <c r="DJ2" s="26"/>
+      <c r="DB2" s="30"/>
+      <c r="DC2" s="30"/>
+      <c r="DD2" s="30"/>
+      <c r="DE2" s="30"/>
+      <c r="DF2" s="30"/>
+      <c r="DG2" s="30"/>
+      <c r="DH2" s="30"/>
+      <c r="DI2" s="30"/>
+      <c r="DJ2" s="31"/>
       <c r="DK2" s="4"/>
       <c r="DL2" s="4"/>
       <c r="DM2" s="4"/>
       <c r="DN2" s="4"/>
       <c r="DO2" s="4"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
     </row>
-    <row r="3" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="27"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -2857,29 +2896,29 @@
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="48"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="46"/>
       <c r="AQ3" s="33"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="27"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="32"/>
       <c r="AT3" s="33"/>
       <c r="AU3" s="33"/>
       <c r="AV3" s="33"/>
@@ -2887,59 +2926,59 @@
       <c r="AX3" s="33"/>
       <c r="AY3" s="33"/>
       <c r="AZ3" s="33"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="27"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="32"/>
       <c r="BC3" s="33"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="27"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="32"/>
       <c r="BF3" s="33"/>
       <c r="BG3" s="33"/>
       <c r="BH3" s="33"/>
-      <c r="BI3" s="28"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="28"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="28"/>
-      <c r="BR3" s="27"/>
-      <c r="BS3" s="28"/>
-      <c r="BT3" s="27"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="48"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="32"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="32"/>
       <c r="BU3" s="33"/>
       <c r="BV3" s="33"/>
       <c r="BW3" s="33"/>
-      <c r="BX3" s="28"/>
-      <c r="BY3" s="35"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="50"/>
       <c r="BZ3" s="33"/>
       <c r="CA3" s="33"/>
       <c r="CB3" s="33"/>
       <c r="CC3" s="33"/>
       <c r="CD3" s="33"/>
       <c r="CE3" s="33"/>
-      <c r="CF3" s="37"/>
-      <c r="CG3" s="37"/>
+      <c r="CF3" s="52"/>
+      <c r="CG3" s="52"/>
       <c r="CH3" s="33"/>
       <c r="CI3" s="33"/>
       <c r="CJ3" s="33"/>
-      <c r="CK3" s="28"/>
-      <c r="CL3" s="41"/>
-      <c r="CM3" s="37"/>
-      <c r="CN3" s="37"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
       <c r="CO3" s="33"/>
       <c r="CP3" s="33"/>
       <c r="CQ3" s="33"/>
       <c r="CR3" s="33"/>
-      <c r="CS3" s="28"/>
-      <c r="CT3" s="27"/>
-      <c r="CU3" s="28"/>
+      <c r="CS3" s="34"/>
+      <c r="CT3" s="32"/>
+      <c r="CU3" s="34"/>
       <c r="CV3" s="23"/>
-      <c r="CW3" s="31"/>
-      <c r="CX3" s="31"/>
-      <c r="CY3" s="31"/>
-      <c r="CZ3" s="31"/>
-      <c r="DA3" s="27"/>
+      <c r="CW3" s="35"/>
+      <c r="CX3" s="35"/>
+      <c r="CY3" s="35"/>
+      <c r="CZ3" s="35"/>
+      <c r="DA3" s="32"/>
       <c r="DB3" s="33"/>
       <c r="DC3" s="33"/>
       <c r="DD3" s="33"/>
@@ -2948,21 +2987,24 @@
       <c r="DG3" s="33"/>
       <c r="DH3" s="33"/>
       <c r="DI3" s="33"/>
-      <c r="DJ3" s="28"/>
+      <c r="DJ3" s="34"/>
       <c r="DK3" s="4"/>
       <c r="DL3" s="4"/>
       <c r="DM3" s="4"/>
       <c r="DN3" s="4"/>
       <c r="DO3" s="4"/>
+      <c r="DP3" s="11"/>
+      <c r="DQ3" s="11"/>
+      <c r="DR3" s="11"/>
     </row>
-    <row r="4" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+    <row r="4" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
@@ -3238,9 +3280,18 @@
       <c r="DL4" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="DP4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="DQ4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="DR4" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:119" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:122" s="1" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="33"/>
@@ -3249,7 +3300,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>134</v>
@@ -3325,22 +3376,22 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
-      <c r="BB5" s="42" t="s">
+      <c r="BB5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="44"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="28"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
-      <c r="BG5" s="42" t="s">
+      <c r="BG5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="42" t="s">
+      <c r="BH5" s="27"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="BK5" s="44"/>
+      <c r="BK5" s="28"/>
       <c r="BL5" s="4" t="s">
         <v>38</v>
       </c>
@@ -3359,14 +3410,14 @@
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
       <c r="BY5" s="9"/>
-      <c r="BZ5" s="49" t="s">
+      <c r="BZ5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="50" t="s">
+      <c r="CA5" s="40"/>
+      <c r="CB5" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="CC5" s="50"/>
+      <c r="CC5" s="41"/>
       <c r="CD5" s="4"/>
       <c r="CE5" s="4"/>
       <c r="CF5" s="9"/>
@@ -3415,8 +3466,17 @@
       <c r="DO5" s="11" t="s">
         <v>167</v>
       </c>
+      <c r="DP5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ5" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR5" s="11" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="6" spans="1:119" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:122" s="21" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3772,9 +3832,26 @@
       <c r="DO6" s="11" t="s">
         <v>173</v>
       </c>
+      <c r="DP6" s="11"/>
+      <c r="DQ6" s="11"/>
+      <c r="DR6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="CW2:CZ3"/>
+    <mergeCell ref="BT2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:CK3"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="AS2:BA3"/>
+    <mergeCell ref="BB2:BD3"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CL2:CS3"/>
+    <mergeCell ref="CT2:CU3"/>
     <mergeCell ref="DA2:DJ3"/>
     <mergeCell ref="BP2:BQ3"/>
     <mergeCell ref="BR2:BS3"/>
@@ -3791,20 +3868,6 @@
     <mergeCell ref="BM2:BM3"/>
     <mergeCell ref="BN2:BO3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="CW2:CZ3"/>
-    <mergeCell ref="BT2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:CK3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AS2:BA3"/>
-    <mergeCell ref="BB2:BD3"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CL2:CS3"/>
-    <mergeCell ref="CT2:CU3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
